--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_25_21.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_25_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-812371.9330108436</v>
+        <v>-813018.9055520275</v>
       </c>
     </row>
     <row r="7">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>68.39702598806987</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>60.24410049029191</v>
+        <v>27.25199763280405</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>68.39702598806987</v>
+        <v>68.39702598806997</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1424,13 +1424,13 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>32.9921028574883</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>68.39702598806997</v>
       </c>
       <c r="W11" t="n">
-        <v>68.39702598806987</v>
+        <v>68.39702598806997</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0.4251038644362839</v>
+        <v>0.4251038644362848</v>
       </c>
       <c r="T13" t="n">
         <v>9.028675106938193</v>
@@ -1616,13 +1616,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>27.25199763280366</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>2.565094327417468</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>32.99210285748831</v>
       </c>
       <c r="V14" t="n">
-        <v>68.39702598806987</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>68.39702598806987</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>68.39702598806987</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>24.686903305388</v>
+        <v>68.39702598806991</v>
       </c>
     </row>
     <row r="15">
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0.4251038644362839</v>
+        <v>0.4251038644362848</v>
       </c>
       <c r="T16" t="n">
         <v>9.028675106938193</v>
@@ -2567,7 +2567,7 @@
         <v>186.2787451931122</v>
       </c>
       <c r="G26" t="n">
-        <v>193.3941876283402</v>
+        <v>193.3941876283403</v>
       </c>
       <c r="H26" t="n">
         <v>112.566723118609</v>
@@ -2855,7 +2855,7 @@
         <v>129.514998713126</v>
       </c>
       <c r="X29" t="n">
-        <v>149.8464808437408</v>
+        <v>149.8464808437409</v>
       </c>
       <c r="Y29" t="n">
         <v>165.6719534638072</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>140.5816934994247</v>
+        <v>140.5816934994246</v>
       </c>
       <c r="C35" t="n">
         <v>123.8503791869722</v>
@@ -3272,16 +3272,16 @@
         <v>113.470016262628</v>
       </c>
       <c r="E35" t="n">
-        <v>139.9833192633171</v>
+        <v>139.983319263317</v>
       </c>
       <c r="F35" t="n">
-        <v>164.1591469885705</v>
+        <v>164.1591469885704</v>
       </c>
       <c r="G35" t="n">
-        <v>171.2745894237985</v>
+        <v>171.2745894237984</v>
       </c>
       <c r="H35" t="n">
-        <v>90.44712491406727</v>
+        <v>90.44712491406725</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,10 +3320,10 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>8.307410325529077</v>
+        <v>8.307410325529045</v>
       </c>
       <c r="V35" t="n">
-        <v>85.39850503054896</v>
+        <v>85.39850503054893</v>
       </c>
       <c r="W35" t="n">
         <v>107.3954005085842</v>
@@ -3405,7 +3405,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>6.854630258029658</v>
+        <v>6.85463025802963</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>42.90665474686543</v>
+        <v>42.9066547468654</v>
       </c>
       <c r="V37" t="n">
-        <v>9.801634574968773</v>
+        <v>9.801634574968745</v>
       </c>
       <c r="W37" t="n">
-        <v>42.95786039544515</v>
+        <v>42.95786039544512</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>140.5816934994247</v>
+        <v>140.5816934994246</v>
       </c>
       <c r="C38" t="n">
         <v>123.8503791869722</v>
@@ -3509,16 +3509,16 @@
         <v>113.470016262628</v>
       </c>
       <c r="E38" t="n">
-        <v>139.9833192633171</v>
+        <v>139.983319263317</v>
       </c>
       <c r="F38" t="n">
-        <v>164.1591469885705</v>
+        <v>164.1591469885704</v>
       </c>
       <c r="G38" t="n">
-        <v>171.2745894237985</v>
+        <v>171.2745894237984</v>
       </c>
       <c r="H38" t="n">
-        <v>90.44712491406727</v>
+        <v>90.44712491406725</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,10 +3557,10 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>8.307410325529077</v>
+        <v>8.307410325529045</v>
       </c>
       <c r="V38" t="n">
-        <v>85.39850503054896</v>
+        <v>85.39850503054893</v>
       </c>
       <c r="W38" t="n">
         <v>107.3954005085842</v>
@@ -3642,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>6.854630258029658</v>
+        <v>6.85463025802963</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>42.90665474686543</v>
+        <v>42.9066547468654</v>
       </c>
       <c r="V40" t="n">
-        <v>9.801634574968773</v>
+        <v>9.801634574968745</v>
       </c>
       <c r="W40" t="n">
-        <v>42.95786039544515</v>
+        <v>42.95786039544512</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>140.5816934994247</v>
+        <v>140.5816934994246</v>
       </c>
       <c r="C41" t="n">
         <v>123.8503791869722</v>
@@ -3746,16 +3746,16 @@
         <v>113.470016262628</v>
       </c>
       <c r="E41" t="n">
-        <v>139.9833192633171</v>
+        <v>139.983319263317</v>
       </c>
       <c r="F41" t="n">
-        <v>164.1591469885705</v>
+        <v>164.1591469885704</v>
       </c>
       <c r="G41" t="n">
         <v>171.2745894237985</v>
       </c>
       <c r="H41" t="n">
-        <v>90.44712491406727</v>
+        <v>90.44712491406725</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,10 +3794,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>8.307410325529077</v>
+        <v>8.307410325529048</v>
       </c>
       <c r="V41" t="n">
-        <v>85.39850503054896</v>
+        <v>85.39850503054893</v>
       </c>
       <c r="W41" t="n">
         <v>107.3954005085842</v>
@@ -3879,7 +3879,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>6.854630258029658</v>
+        <v>6.85463025802963</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>42.90665474686543</v>
+        <v>42.9066547468654</v>
       </c>
       <c r="V43" t="n">
-        <v>9.801634574968773</v>
+        <v>9.801634574968745</v>
       </c>
       <c r="W43" t="n">
-        <v>42.95786039544515</v>
+        <v>42.95786039544512</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>140.5816934994247</v>
+        <v>140.5816934994246</v>
       </c>
       <c r="C44" t="n">
         <v>123.8503791869722</v>
@@ -3983,16 +3983,16 @@
         <v>113.470016262628</v>
       </c>
       <c r="E44" t="n">
-        <v>139.9833192633171</v>
+        <v>139.983319263317</v>
       </c>
       <c r="F44" t="n">
-        <v>164.1591469885705</v>
+        <v>164.1591469885704</v>
       </c>
       <c r="G44" t="n">
-        <v>171.2745894237985</v>
+        <v>171.2745894237984</v>
       </c>
       <c r="H44" t="n">
-        <v>90.44712491406727</v>
+        <v>90.44712491406725</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,10 +4031,10 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>8.307410325529073</v>
+        <v>8.307410325529045</v>
       </c>
       <c r="V44" t="n">
-        <v>85.39850503054896</v>
+        <v>85.39850503054893</v>
       </c>
       <c r="W44" t="n">
         <v>107.3954005085842</v>
@@ -4116,7 +4116,7 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>6.854630258029658</v>
+        <v>6.85463025802963</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>42.90665474686543</v>
+        <v>42.9066547468654</v>
       </c>
       <c r="V46" t="n">
-        <v>9.801634574968773</v>
+        <v>9.801634574968745</v>
       </c>
       <c r="W46" t="n">
-        <v>42.95786039544515</v>
+        <v>42.95786039544512</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>135.4122938753706</v>
+        <v>102.0869374536655</v>
       </c>
       <c r="C11" t="n">
-        <v>135.4122938753706</v>
+        <v>102.0869374536655</v>
       </c>
       <c r="D11" t="n">
-        <v>74.55966711750001</v>
+        <v>74.55966711750013</v>
       </c>
       <c r="E11" t="n">
-        <v>74.55966711750001</v>
+        <v>74.55966711750013</v>
       </c>
       <c r="F11" t="n">
-        <v>74.55966711750001</v>
+        <v>74.55966711750013</v>
       </c>
       <c r="G11" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045598</v>
       </c>
       <c r="H11" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045598</v>
       </c>
       <c r="I11" t="n">
-        <v>5.47176207904559</v>
+        <v>35.56706215439188</v>
       </c>
       <c r="J11" t="n">
-        <v>73.18481780723477</v>
+        <v>35.56706215439188</v>
       </c>
       <c r="K11" t="n">
-        <v>73.18481780723477</v>
+        <v>95.48833333466584</v>
       </c>
       <c r="L11" t="n">
-        <v>73.18481780723477</v>
+        <v>95.48833333466584</v>
       </c>
       <c r="M11" t="n">
-        <v>73.18481780723477</v>
+        <v>95.48833333466584</v>
       </c>
       <c r="N11" t="n">
-        <v>140.8978735354239</v>
+        <v>163.2013890628551</v>
       </c>
       <c r="O11" t="n">
-        <v>145.2860302439057</v>
+        <v>215.2056264681707</v>
       </c>
       <c r="P11" t="n">
-        <v>201.7709597071525</v>
+        <v>215.2056264681707</v>
       </c>
       <c r="Q11" t="n">
-        <v>251.0794834347999</v>
+        <v>215.2056264681707</v>
       </c>
       <c r="R11" t="n">
-        <v>251.0794834347999</v>
+        <v>251.0794834348003</v>
       </c>
       <c r="S11" t="n">
-        <v>273.5881039522795</v>
+        <v>273.5881039522799</v>
       </c>
       <c r="T11" t="n">
-        <v>273.5881039522795</v>
+        <v>273.5881039522799</v>
       </c>
       <c r="U11" t="n">
-        <v>273.5881039522795</v>
+        <v>240.2627475305745</v>
       </c>
       <c r="V11" t="n">
-        <v>273.5881039522795</v>
+        <v>171.17484249212</v>
       </c>
       <c r="W11" t="n">
-        <v>204.500198913825</v>
+        <v>102.0869374536655</v>
       </c>
       <c r="X11" t="n">
-        <v>204.500198913825</v>
+        <v>102.0869374536655</v>
       </c>
       <c r="Y11" t="n">
-        <v>204.500198913825</v>
+        <v>102.0869374536655</v>
       </c>
     </row>
     <row r="12">
@@ -5094,52 +5094,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045598</v>
       </c>
       <c r="C12" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045598</v>
       </c>
       <c r="D12" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045598</v>
       </c>
       <c r="E12" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045598</v>
       </c>
       <c r="F12" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045598</v>
       </c>
       <c r="G12" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045598</v>
       </c>
       <c r="H12" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045598</v>
       </c>
       <c r="I12" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045598</v>
       </c>
       <c r="J12" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045598</v>
       </c>
       <c r="K12" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045598</v>
       </c>
       <c r="L12" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045598</v>
       </c>
       <c r="M12" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045598</v>
       </c>
       <c r="N12" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045598</v>
       </c>
       <c r="O12" t="n">
-        <v>5.47176207904559</v>
+        <v>57.17833035452109</v>
       </c>
       <c r="P12" t="n">
-        <v>5.47176207904559</v>
+        <v>57.17833035452109</v>
       </c>
       <c r="Q12" t="n">
-        <v>5.47176207904559</v>
+        <v>57.17833035452109</v>
       </c>
       <c r="R12" t="n">
         <v>57.17833035452109</v>
@@ -5151,19 +5151,19 @@
         <v>57.17833035452109</v>
       </c>
       <c r="U12" t="n">
-        <v>50.92431750291717</v>
+        <v>50.92431750291718</v>
       </c>
       <c r="V12" t="n">
-        <v>37.32966388711517</v>
+        <v>37.32966388711518</v>
       </c>
       <c r="W12" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045598</v>
       </c>
       <c r="X12" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045598</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045598</v>
       </c>
     </row>
     <row r="13">
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>43.45443122367966</v>
+        <v>5.471762079045598</v>
       </c>
       <c r="C13" t="n">
-        <v>43.45443122367966</v>
+        <v>5.471762079045598</v>
       </c>
       <c r="D13" t="n">
-        <v>111.1674869518688</v>
+        <v>5.471762079045598</v>
       </c>
       <c r="E13" t="n">
-        <v>178.880542680058</v>
+        <v>5.471762079045598</v>
       </c>
       <c r="F13" t="n">
-        <v>178.880542680058</v>
+        <v>5.471762079045598</v>
       </c>
       <c r="G13" t="n">
-        <v>178.880542680058</v>
+        <v>5.471762079045598</v>
       </c>
       <c r="H13" t="n">
-        <v>178.880542680058</v>
+        <v>5.471762079045598</v>
       </c>
       <c r="I13" t="n">
-        <v>178.880542680058</v>
+        <v>5.471762079045598</v>
       </c>
       <c r="J13" t="n">
-        <v>178.880542680058</v>
+        <v>5.471762079045598</v>
       </c>
       <c r="K13" t="n">
-        <v>194.525289518022</v>
+        <v>5.471762079045598</v>
       </c>
       <c r="L13" t="n">
-        <v>194.525289518022</v>
+        <v>59.0991780616435</v>
       </c>
       <c r="M13" t="n">
-        <v>194.525289518022</v>
+        <v>126.8122337898328</v>
       </c>
       <c r="N13" t="n">
         <v>194.525289518022</v>
@@ -5230,19 +5230,19 @@
         <v>184.976017829765</v>
       </c>
       <c r="U13" t="n">
-        <v>116.701929669336</v>
+        <v>116.7019296693361</v>
       </c>
       <c r="V13" t="n">
-        <v>81.86725582395422</v>
+        <v>81.86725582395424</v>
       </c>
       <c r="W13" t="n">
-        <v>13.54144478617202</v>
+        <v>13.54144478617203</v>
       </c>
       <c r="X13" t="n">
-        <v>5.773428652537577</v>
+        <v>5.773428652537585</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045598</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5.47176207904559</v>
+        <v>171.1748424921198</v>
       </c>
       <c r="C14" t="n">
-        <v>5.47176207904559</v>
+        <v>171.1748424921198</v>
       </c>
       <c r="D14" t="n">
-        <v>5.47176207904559</v>
+        <v>171.1748424921198</v>
       </c>
       <c r="E14" t="n">
-        <v>5.47176207904559</v>
+        <v>171.1748424921198</v>
       </c>
       <c r="F14" t="n">
-        <v>5.47176207904559</v>
+        <v>143.6475721559545</v>
       </c>
       <c r="G14" t="n">
-        <v>5.47176207904559</v>
+        <v>74.55966711750006</v>
       </c>
       <c r="H14" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="I14" t="n">
         <v>35.56706215439187</v>
       </c>
       <c r="J14" t="n">
-        <v>103.280117882581</v>
+        <v>35.56706215439187</v>
       </c>
       <c r="K14" t="n">
-        <v>103.280117882581</v>
+        <v>35.56706215439187</v>
       </c>
       <c r="L14" t="n">
-        <v>103.280117882581</v>
+        <v>93.85293350575506</v>
       </c>
       <c r="M14" t="n">
-        <v>103.280117882581</v>
+        <v>100.0815950331963</v>
       </c>
       <c r="N14" t="n">
-        <v>103.280117882581</v>
+        <v>100.0815950331963</v>
       </c>
       <c r="O14" t="n">
-        <v>131.9207937947558</v>
+        <v>167.7946507613856</v>
       </c>
       <c r="P14" t="n">
-        <v>188.4057232580025</v>
+        <v>224.2795802246322</v>
       </c>
       <c r="Q14" t="n">
-        <v>237.7142469856499</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="R14" t="n">
-        <v>273.5881039522795</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="S14" t="n">
-        <v>273.5881039522795</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="T14" t="n">
-        <v>270.9970995811507</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="U14" t="n">
-        <v>237.6717431594454</v>
+        <v>240.2627475305743</v>
       </c>
       <c r="V14" t="n">
-        <v>168.5838381209909</v>
+        <v>240.2627475305743</v>
       </c>
       <c r="W14" t="n">
-        <v>99.49593308253652</v>
+        <v>240.2627475305743</v>
       </c>
       <c r="X14" t="n">
-        <v>30.40802804408398</v>
+        <v>240.2627475305743</v>
       </c>
       <c r="Y14" t="n">
-        <v>5.47176207904559</v>
+        <v>171.1748424921198</v>
       </c>
     </row>
     <row r="15">
@@ -5331,46 +5331,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5.47176207904559</v>
+        <v>19.32027248706315</v>
       </c>
       <c r="C15" t="n">
-        <v>5.47176207904559</v>
+        <v>19.32027248706315</v>
       </c>
       <c r="D15" t="n">
-        <v>5.47176207904559</v>
+        <v>19.32027248706315</v>
       </c>
       <c r="E15" t="n">
-        <v>5.47176207904559</v>
+        <v>19.32027248706315</v>
       </c>
       <c r="F15" t="n">
-        <v>5.47176207904559</v>
+        <v>19.32027248706315</v>
       </c>
       <c r="G15" t="n">
-        <v>5.47176207904559</v>
+        <v>19.32027248706315</v>
       </c>
       <c r="H15" t="n">
-        <v>5.47176207904559</v>
+        <v>19.32027248706315</v>
       </c>
       <c r="I15" t="n">
-        <v>5.47176207904559</v>
+        <v>19.32027248706315</v>
       </c>
       <c r="J15" t="n">
-        <v>5.47176207904559</v>
+        <v>19.32027248706315</v>
       </c>
       <c r="K15" t="n">
-        <v>5.47176207904559</v>
+        <v>19.32027248706315</v>
       </c>
       <c r="L15" t="n">
-        <v>5.47176207904559</v>
+        <v>19.32027248706315</v>
       </c>
       <c r="M15" t="n">
-        <v>5.47176207904559</v>
+        <v>57.17833035452109</v>
       </c>
       <c r="N15" t="n">
-        <v>5.47176207904559</v>
+        <v>57.17833035452109</v>
       </c>
       <c r="O15" t="n">
-        <v>5.47176207904559</v>
+        <v>57.17833035452109</v>
       </c>
       <c r="P15" t="n">
         <v>57.17833035452109</v>
@@ -5394,13 +5394,13 @@
         <v>37.32966388711517</v>
       </c>
       <c r="W15" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="X15" t="n">
-        <v>5.47176207904559</v>
+        <v>19.32027248706315</v>
       </c>
       <c r="Y15" t="n">
-        <v>5.47176207904559</v>
+        <v>19.32027248706315</v>
       </c>
     </row>
     <row r="16">
@@ -5410,52 +5410,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5.47176207904559</v>
+        <v>43.45443122367966</v>
       </c>
       <c r="C16" t="n">
-        <v>5.47176207904559</v>
+        <v>94.05676754220039</v>
       </c>
       <c r="D16" t="n">
-        <v>5.47176207904559</v>
+        <v>94.05676754220039</v>
       </c>
       <c r="E16" t="n">
-        <v>5.47176207904559</v>
+        <v>94.05676754220039</v>
       </c>
       <c r="F16" t="n">
-        <v>5.47176207904559</v>
+        <v>94.05676754220039</v>
       </c>
       <c r="G16" t="n">
-        <v>5.47176207904559</v>
+        <v>94.05676754220039</v>
       </c>
       <c r="H16" t="n">
-        <v>5.47176207904559</v>
+        <v>94.05676754220039</v>
       </c>
       <c r="I16" t="n">
-        <v>73.18481780723477</v>
+        <v>141.0223128486172</v>
       </c>
       <c r="J16" t="n">
-        <v>126.8122337898329</v>
+        <v>141.0223128486172</v>
       </c>
       <c r="K16" t="n">
-        <v>126.8122337898329</v>
+        <v>141.0223128486172</v>
       </c>
       <c r="L16" t="n">
-        <v>126.8122337898329</v>
+        <v>141.0223128486172</v>
       </c>
       <c r="M16" t="n">
-        <v>194.525289518022</v>
+        <v>141.0223128486172</v>
       </c>
       <c r="N16" t="n">
-        <v>194.525289518022</v>
+        <v>141.0223128486172</v>
       </c>
       <c r="O16" t="n">
-        <v>194.525289518022</v>
+        <v>141.0223128486172</v>
       </c>
       <c r="P16" t="n">
-        <v>194.525289518022</v>
+        <v>141.0223128486172</v>
       </c>
       <c r="Q16" t="n">
-        <v>194.525289518022</v>
+        <v>141.0223128486172</v>
       </c>
       <c r="R16" t="n">
         <v>194.525289518022</v>
@@ -5473,13 +5473,13 @@
         <v>81.86725582395422</v>
       </c>
       <c r="W16" t="n">
-        <v>13.54144478617202</v>
+        <v>13.54144478617203</v>
       </c>
       <c r="X16" t="n">
-        <v>5.773428652537577</v>
+        <v>5.77342865253758</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045593</v>
       </c>
     </row>
     <row r="17">
@@ -5513,40 +5513,40 @@
         <v>22.25055491761735</v>
       </c>
       <c r="J17" t="n">
-        <v>22.25055491761735</v>
+        <v>89.96361064580658</v>
       </c>
       <c r="K17" t="n">
-        <v>22.25055491761735</v>
+        <v>89.96361064580658</v>
       </c>
       <c r="L17" t="n">
-        <v>22.25055491761735</v>
+        <v>116.3850659726463</v>
       </c>
       <c r="M17" t="n">
-        <v>22.25055491761735</v>
+        <v>116.3850659726463</v>
       </c>
       <c r="N17" t="n">
-        <v>22.25055491761735</v>
+        <v>116.3850659726463</v>
       </c>
       <c r="O17" t="n">
-        <v>22.25055491761735</v>
+        <v>116.3850659726463</v>
       </c>
       <c r="P17" t="n">
-        <v>22.25055491761735</v>
+        <v>116.3850659726463</v>
       </c>
       <c r="Q17" t="n">
-        <v>22.25055491761735</v>
+        <v>116.3850659726463</v>
       </c>
       <c r="R17" t="n">
-        <v>70.44893676771201</v>
+        <v>184.0981217008356</v>
       </c>
       <c r="S17" t="n">
-        <v>138.1619924959012</v>
+        <v>184.0981217008356</v>
       </c>
       <c r="T17" t="n">
-        <v>205.8750482240905</v>
+        <v>184.0981217008356</v>
       </c>
       <c r="U17" t="n">
-        <v>273.5881039522797</v>
+        <v>251.8111774290248</v>
       </c>
       <c r="V17" t="n">
         <v>273.5881039522797</v>
@@ -5732,7 +5732,7 @@
         <v>166.3863781436692</v>
       </c>
       <c r="D20" t="n">
-        <v>160.2504026345341</v>
+        <v>160.250402634534</v>
       </c>
       <c r="E20" t="n">
         <v>127.3333129832886</v>
@@ -5744,37 +5744,37 @@
         <v>5.471762079045594</v>
       </c>
       <c r="H20" t="n">
-        <v>22.25055491761735</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="I20" t="n">
-        <v>22.25055491761735</v>
+        <v>73.18481780723482</v>
       </c>
       <c r="J20" t="n">
-        <v>89.96361064580658</v>
+        <v>73.18481780723482</v>
       </c>
       <c r="K20" t="n">
-        <v>89.96361064580658</v>
+        <v>140.8978735354241</v>
       </c>
       <c r="L20" t="n">
-        <v>157.6766663739958</v>
+        <v>140.8978735354241</v>
       </c>
       <c r="M20" t="n">
-        <v>225.3897221021851</v>
+        <v>205.8750482240905</v>
       </c>
       <c r="N20" t="n">
-        <v>225.3897221021851</v>
+        <v>205.8750482240905</v>
       </c>
       <c r="O20" t="n">
-        <v>225.3897221021851</v>
+        <v>205.8750482240905</v>
       </c>
       <c r="P20" t="n">
-        <v>273.5881039522797</v>
+        <v>205.8750482240905</v>
       </c>
       <c r="Q20" t="n">
-        <v>273.5881039522797</v>
+        <v>205.8750482240905</v>
       </c>
       <c r="R20" t="n">
-        <v>273.5881039522797</v>
+        <v>205.8750482240905</v>
       </c>
       <c r="S20" t="n">
         <v>273.5881039522797</v>
@@ -5789,10 +5789,10 @@
         <v>273.5881039522797</v>
       </c>
       <c r="W20" t="n">
-        <v>273.5881039522799</v>
+        <v>273.5881039522798</v>
       </c>
       <c r="X20" t="n">
-        <v>253.0512533152953</v>
+        <v>253.0512533152951</v>
       </c>
       <c r="Y20" t="n">
         <v>216.5290767994555</v>
@@ -5963,16 +5963,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>183.0075687278994</v>
+        <v>183.0075687278993</v>
       </c>
       <c r="C23" t="n">
-        <v>166.386378143669</v>
+        <v>166.3863781436689</v>
       </c>
       <c r="D23" t="n">
-        <v>160.2504026345339</v>
+        <v>160.2504026345338</v>
       </c>
       <c r="E23" t="n">
-        <v>127.3333129832885</v>
+        <v>127.3333129832884</v>
       </c>
       <c r="F23" t="n">
         <v>69.9961953267368</v>
@@ -5981,43 +5981,43 @@
         <v>5.471762079045592</v>
       </c>
       <c r="H23" t="n">
-        <v>22.25055491761735</v>
+        <v>5.471762079045592</v>
       </c>
       <c r="I23" t="n">
-        <v>22.25055491761735</v>
+        <v>73.18481780723479</v>
       </c>
       <c r="J23" t="n">
-        <v>89.96361064580655</v>
+        <v>73.18481780723479</v>
       </c>
       <c r="K23" t="n">
-        <v>89.96361064580655</v>
+        <v>73.18481780723479</v>
       </c>
       <c r="L23" t="n">
-        <v>89.96361064580655</v>
+        <v>73.18481780723479</v>
       </c>
       <c r="M23" t="n">
-        <v>157.6766663739958</v>
+        <v>73.18481780723479</v>
       </c>
       <c r="N23" t="n">
-        <v>184.0981217008355</v>
+        <v>73.18481780723479</v>
       </c>
       <c r="O23" t="n">
-        <v>184.0981217008355</v>
+        <v>73.18481780723479</v>
       </c>
       <c r="P23" t="n">
-        <v>184.0981217008355</v>
+        <v>73.18481780723479</v>
       </c>
       <c r="Q23" t="n">
-        <v>184.0981217008355</v>
+        <v>73.18481780723479</v>
       </c>
       <c r="R23" t="n">
-        <v>184.0981217008355</v>
+        <v>73.18481780723479</v>
       </c>
       <c r="S23" t="n">
-        <v>251.8111774290247</v>
+        <v>140.897873535424</v>
       </c>
       <c r="T23" t="n">
-        <v>251.8111774290247</v>
+        <v>208.6109292636132</v>
       </c>
       <c r="U23" t="n">
         <v>251.8111774290247</v>
@@ -6227,25 +6227,25 @@
         <v>67.29938996034312</v>
       </c>
       <c r="K26" t="n">
-        <v>164.1753083703949</v>
+        <v>83.36352971695715</v>
       </c>
       <c r="L26" t="n">
-        <v>593.1503088184577</v>
+        <v>512.33853016502</v>
       </c>
       <c r="M26" t="n">
-        <v>667.050174750235</v>
+        <v>512.33853016502</v>
       </c>
       <c r="N26" t="n">
-        <v>1096.025175198298</v>
+        <v>941.3135306130828</v>
       </c>
       <c r="O26" t="n">
-        <v>1340.299106447664</v>
+        <v>941.3135306130828</v>
       </c>
       <c r="P26" t="n">
-        <v>1399.323479295054</v>
+        <v>1331.661853393831</v>
       </c>
       <c r="Q26" t="n">
-        <v>1669.770960790283</v>
+        <v>1602.10933488906</v>
       </c>
       <c r="R26" t="n">
         <v>1708.184261141055</v>
@@ -6279,58 +6279,58 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="C27" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="D27" t="n">
-        <v>78.59820166294284</v>
+        <v>55.24086313024058</v>
       </c>
       <c r="E27" t="n">
-        <v>78.59820166294284</v>
+        <v>55.24086313024058</v>
       </c>
       <c r="F27" t="n">
-        <v>78.59820166294284</v>
+        <v>55.24086313024058</v>
       </c>
       <c r="G27" t="n">
-        <v>78.59820166294284</v>
+        <v>55.24086313024058</v>
       </c>
       <c r="H27" t="n">
-        <v>78.59820166294284</v>
+        <v>55.24086313024058</v>
       </c>
       <c r="I27" t="n">
-        <v>78.59820166294284</v>
+        <v>55.24086313024058</v>
       </c>
       <c r="J27" t="n">
-        <v>78.59820166294284</v>
+        <v>55.24086313024058</v>
       </c>
       <c r="K27" t="n">
-        <v>78.59820166294284</v>
+        <v>55.24086313024058</v>
       </c>
       <c r="L27" t="n">
-        <v>78.59820166294284</v>
+        <v>55.24086313024058</v>
       </c>
       <c r="M27" t="n">
-        <v>78.59820166294284</v>
+        <v>55.24086313024058</v>
       </c>
       <c r="N27" t="n">
-        <v>78.59820166294284</v>
+        <v>55.24086313024058</v>
       </c>
       <c r="O27" t="n">
-        <v>78.59820166294284</v>
+        <v>55.24086313024058</v>
       </c>
       <c r="P27" t="n">
-        <v>78.59820166294284</v>
+        <v>55.24086313024058</v>
       </c>
       <c r="Q27" t="n">
-        <v>78.59820166294284</v>
+        <v>55.24086313024058</v>
       </c>
       <c r="R27" t="n">
-        <v>78.59820166294284</v>
+        <v>55.24086313024058</v>
       </c>
       <c r="S27" t="n">
-        <v>78.59820166294284</v>
+        <v>55.24086313024058</v>
       </c>
       <c r="T27" t="n">
         <v>78.59820166294284</v>
@@ -6379,22 +6379,22 @@
         <v>108.7721824097014</v>
       </c>
       <c r="I28" t="n">
-        <v>181.3051634541337</v>
+        <v>108.7721824097014</v>
       </c>
       <c r="J28" t="n">
-        <v>181.3051634541337</v>
+        <v>108.7721824097014</v>
       </c>
       <c r="K28" t="n">
-        <v>181.3051634541337</v>
+        <v>108.7721824097014</v>
       </c>
       <c r="L28" t="n">
-        <v>181.3051634541337</v>
+        <v>108.7721824097014</v>
       </c>
       <c r="M28" t="n">
-        <v>181.3051634541337</v>
+        <v>108.7721824097014</v>
       </c>
       <c r="N28" t="n">
-        <v>210.0320876678294</v>
+        <v>108.7721824097014</v>
       </c>
       <c r="O28" t="n">
         <v>210.0320876678294</v>
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>980.0203689923732</v>
+        <v>980.0203689923729</v>
       </c>
       <c r="C29" t="n">
-        <v>832.5759473847833</v>
+        <v>832.575947384783</v>
       </c>
       <c r="D29" t="n">
-        <v>695.6167408522886</v>
+        <v>695.6167408522883</v>
       </c>
       <c r="E29" t="n">
-        <v>531.8764201776835</v>
+        <v>531.8764201776834</v>
       </c>
       <c r="F29" t="n">
-        <v>343.7160714977722</v>
+        <v>343.716071497772</v>
       </c>
       <c r="G29" t="n">
         <v>148.3684072267213</v>
@@ -6458,31 +6458,31 @@
         <v>34.66464650085356</v>
       </c>
       <c r="I29" t="n">
-        <v>34.66464650085356</v>
+        <v>67.29938996034312</v>
       </c>
       <c r="J29" t="n">
-        <v>34.66464650085356</v>
+        <v>104.0764446497858</v>
       </c>
       <c r="K29" t="n">
-        <v>430.8654778485421</v>
+        <v>166.537159214203</v>
       </c>
       <c r="L29" t="n">
-        <v>430.8654778485421</v>
+        <v>338.6338665797709</v>
       </c>
       <c r="M29" t="n">
-        <v>850.2342602449295</v>
+        <v>767.6088670278338</v>
       </c>
       <c r="N29" t="n">
-        <v>1279.209260692992</v>
+        <v>843.6624800983785</v>
       </c>
       <c r="O29" t="n">
-        <v>1708.184261141055</v>
+        <v>1272.637480546441</v>
       </c>
       <c r="P29" t="n">
-        <v>1708.184261141055</v>
+        <v>1331.661853393831</v>
       </c>
       <c r="Q29" t="n">
-        <v>1708.184261141055</v>
+        <v>1602.10933488906</v>
       </c>
       <c r="R29" t="n">
         <v>1708.184261141055</v>
@@ -6497,7 +6497,7 @@
         <v>1702.497972992101</v>
       </c>
       <c r="V29" t="n">
-        <v>1593.893828310192</v>
+        <v>1593.893828310191</v>
       </c>
       <c r="W29" t="n">
         <v>1463.070597286832</v>
@@ -6506,7 +6506,7 @@
         <v>1311.710515626488</v>
       </c>
       <c r="Y29" t="n">
-        <v>1144.365108087289</v>
+        <v>1144.365108087288</v>
       </c>
     </row>
     <row r="30">
@@ -6519,16 +6519,16 @@
         <v>51.05260029301439</v>
       </c>
       <c r="C30" t="n">
-        <v>51.05260029301439</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="D30" t="n">
-        <v>51.05260029301439</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="E30" t="n">
-        <v>51.05260029301439</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="F30" t="n">
-        <v>51.05260029301439</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="G30" t="n">
         <v>78.59820166294284</v>
@@ -6598,49 +6598,49 @@
         <v>34.66464650085356</v>
       </c>
       <c r="C31" t="n">
-        <v>34.66464650085356</v>
+        <v>87.80642620351756</v>
       </c>
       <c r="D31" t="n">
-        <v>105.9541027560337</v>
+        <v>87.80642620351756</v>
       </c>
       <c r="E31" t="n">
-        <v>105.9541027560337</v>
+        <v>87.80642620351756</v>
       </c>
       <c r="F31" t="n">
-        <v>105.9541027560337</v>
+        <v>87.80642620351756</v>
       </c>
       <c r="G31" t="n">
-        <v>120.9026283420858</v>
+        <v>87.80642620351756</v>
       </c>
       <c r="H31" t="n">
-        <v>120.9026283420858</v>
+        <v>87.80642620351756</v>
       </c>
       <c r="I31" t="n">
-        <v>120.9026283420858</v>
+        <v>160.3394072479498</v>
       </c>
       <c r="J31" t="n">
-        <v>120.9026283420858</v>
+        <v>160.3394072479498</v>
       </c>
       <c r="K31" t="n">
-        <v>120.9026283420858</v>
+        <v>160.3394072479498</v>
       </c>
       <c r="L31" t="n">
-        <v>120.9026283420858</v>
+        <v>160.3394072479498</v>
       </c>
       <c r="M31" t="n">
-        <v>120.9026283420858</v>
+        <v>160.3394072479498</v>
       </c>
       <c r="N31" t="n">
-        <v>120.9026283420858</v>
+        <v>160.3394072479498</v>
       </c>
       <c r="O31" t="n">
-        <v>120.9026283420858</v>
+        <v>160.3394072479498</v>
       </c>
       <c r="P31" t="n">
-        <v>120.9026283420858</v>
+        <v>160.3394072479498</v>
       </c>
       <c r="Q31" t="n">
-        <v>210.0320876678294</v>
+        <v>160.3394072479498</v>
       </c>
       <c r="R31" t="n">
         <v>210.0320876678294</v>
@@ -6674,16 +6674,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>980.0203689923731</v>
+        <v>980.0203689923733</v>
       </c>
       <c r="C32" t="n">
-        <v>832.5759473847831</v>
+        <v>832.5759473847834</v>
       </c>
       <c r="D32" t="n">
         <v>695.6167408522886</v>
       </c>
       <c r="E32" t="n">
-        <v>531.8764201776835</v>
+        <v>531.8764201776836</v>
       </c>
       <c r="F32" t="n">
         <v>343.7160714977722</v>
@@ -6695,31 +6695,31 @@
         <v>34.66464650085356</v>
       </c>
       <c r="I32" t="n">
-        <v>34.66464650085356</v>
+        <v>67.29938996034309</v>
       </c>
       <c r="J32" t="n">
-        <v>65.11236425999982</v>
+        <v>148.7795367731729</v>
       </c>
       <c r="K32" t="n">
-        <v>461.3131956076883</v>
+        <v>148.7795367731729</v>
       </c>
       <c r="L32" t="n">
-        <v>890.2881960557511</v>
+        <v>577.7545372212358</v>
       </c>
       <c r="M32" t="n">
-        <v>1208.202228967195</v>
+        <v>1006.729537669299</v>
       </c>
       <c r="N32" t="n">
-        <v>1637.177229415257</v>
+        <v>1062.261994481816</v>
       </c>
       <c r="O32" t="n">
-        <v>1708.184261141055</v>
+        <v>1491.236994929879</v>
       </c>
       <c r="P32" t="n">
-        <v>1708.184261141055</v>
+        <v>1550.261367777269</v>
       </c>
       <c r="Q32" t="n">
-        <v>1708.184261141055</v>
+        <v>1602.10933488906</v>
       </c>
       <c r="R32" t="n">
         <v>1708.184261141055</v>
@@ -6768,25 +6768,25 @@
         <v>34.66464650085356</v>
       </c>
       <c r="G33" t="n">
-        <v>78.59820166294293</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="H33" t="n">
-        <v>78.59820166294293</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="I33" t="n">
-        <v>78.59820166294293</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="J33" t="n">
-        <v>78.59820166294293</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="K33" t="n">
-        <v>78.59820166294293</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="L33" t="n">
-        <v>78.59820166294293</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="M33" t="n">
-        <v>78.59820166294293</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="N33" t="n">
         <v>78.59820166294293</v>
@@ -6832,52 +6832,52 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>34.66464650085356</v>
+        <v>36.90842647631732</v>
       </c>
       <c r="C34" t="n">
-        <v>34.66464650085356</v>
+        <v>36.90842647631732</v>
       </c>
       <c r="D34" t="n">
-        <v>105.9541027560337</v>
+        <v>36.90842647631732</v>
       </c>
       <c r="E34" t="n">
-        <v>105.9541027560337</v>
+        <v>110.2085156494044</v>
       </c>
       <c r="F34" t="n">
-        <v>105.9541027560337</v>
+        <v>110.2085156494044</v>
       </c>
       <c r="G34" t="n">
-        <v>105.9541027560337</v>
+        <v>110.2085156494044</v>
       </c>
       <c r="H34" t="n">
-        <v>105.9541027560337</v>
+        <v>153.9896676142815</v>
       </c>
       <c r="I34" t="n">
-        <v>105.9541027560337</v>
+        <v>153.9896676142815</v>
       </c>
       <c r="J34" t="n">
-        <v>105.9541027560337</v>
+        <v>153.9896676142815</v>
       </c>
       <c r="K34" t="n">
-        <v>120.9026283420859</v>
+        <v>153.9896676142815</v>
       </c>
       <c r="L34" t="n">
-        <v>120.9026283420859</v>
+        <v>153.9896676142815</v>
       </c>
       <c r="M34" t="n">
-        <v>120.9026283420859</v>
+        <v>153.9896676142815</v>
       </c>
       <c r="N34" t="n">
-        <v>120.9026283420859</v>
+        <v>153.9896676142815</v>
       </c>
       <c r="O34" t="n">
-        <v>120.9026283420859</v>
+        <v>153.9896676142815</v>
       </c>
       <c r="P34" t="n">
-        <v>120.9026283420859</v>
+        <v>153.9896676142815</v>
       </c>
       <c r="Q34" t="n">
-        <v>210.0320876678295</v>
+        <v>153.9896676142815</v>
       </c>
       <c r="R34" t="n">
         <v>210.0320876678295</v>
@@ -6901,7 +6901,7 @@
         <v>34.66464650085356</v>
       </c>
       <c r="Y34" t="n">
-        <v>34.66464650085356</v>
+        <v>36.90842647631732</v>
       </c>
     </row>
     <row r="35">
@@ -6911,61 +6911,61 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>840.4904359767106</v>
+        <v>840.4904359767102</v>
       </c>
       <c r="C35" t="n">
-        <v>715.3890428585569</v>
+        <v>715.3890428585565</v>
       </c>
       <c r="D35" t="n">
-        <v>600.7728648154982</v>
+        <v>600.772864815498</v>
       </c>
       <c r="E35" t="n">
-        <v>459.3755726303294</v>
+        <v>459.3755726303292</v>
       </c>
       <c r="F35" t="n">
-        <v>293.5582524398542</v>
+        <v>293.558252439854</v>
       </c>
       <c r="G35" t="n">
-        <v>120.5536166582396</v>
+        <v>120.5536166582395</v>
       </c>
       <c r="H35" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="I35" t="n">
-        <v>83.72603010379389</v>
+        <v>83.7260301037939</v>
       </c>
       <c r="J35" t="n">
-        <v>83.72603010379389</v>
+        <v>187.1045791391201</v>
       </c>
       <c r="K35" t="n">
-        <v>168.0851468907075</v>
+        <v>271.4636959260337</v>
       </c>
       <c r="L35" t="n">
-        <v>529.3470916105812</v>
+        <v>354.1874128840366</v>
       </c>
       <c r="M35" t="n">
-        <v>890.6090363304548</v>
+        <v>715.4493576039101</v>
       </c>
       <c r="N35" t="n">
-        <v>988.5610516234959</v>
+        <v>813.4013728969512</v>
       </c>
       <c r="O35" t="n">
-        <v>1175.81850576634</v>
+        <v>813.4013728969512</v>
       </c>
       <c r="P35" t="n">
-        <v>1256.741280836227</v>
+        <v>1174.663317616825</v>
       </c>
       <c r="Q35" t="n">
-        <v>1330.487650170514</v>
+        <v>1262.826024269291</v>
       </c>
       <c r="R35" t="n">
-        <v>1390.799352743783</v>
+        <v>1390.799352743782</v>
       </c>
       <c r="S35" t="n">
         <v>1437.745818867902</v>
       </c>
       <c r="T35" t="n">
-        <v>1459.644221090399</v>
+        <v>1459.644221090398</v>
       </c>
       <c r="U35" t="n">
         <v>1451.252897529258</v>
@@ -6974,13 +6974,13 @@
         <v>1364.991781336784</v>
       </c>
       <c r="W35" t="n">
-        <v>1256.511578802861</v>
+        <v>1256.51157880286</v>
       </c>
       <c r="X35" t="n">
-        <v>1127.494525631953</v>
+        <v>1127.494525631952</v>
       </c>
       <c r="Y35" t="n">
-        <v>982.49214658219</v>
+        <v>982.4921465821894</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="C36" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="D36" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="E36" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="F36" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="G36" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="H36" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="I36" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="J36" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="K36" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="L36" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="M36" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="N36" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="O36" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="P36" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="Q36" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="R36" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="S36" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="T36" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="U36" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="V36" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="W36" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="X36" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="Y36" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="C37" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="D37" t="n">
-        <v>29.81942075236209</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="E37" t="n">
-        <v>29.81942075236209</v>
+        <v>124.3913758173915</v>
       </c>
       <c r="F37" t="n">
-        <v>125.8253588837063</v>
+        <v>124.3913758173915</v>
       </c>
       <c r="G37" t="n">
-        <v>125.8253588837063</v>
+        <v>124.3913758173915</v>
       </c>
       <c r="H37" t="n">
-        <v>125.8253588837063</v>
+        <v>124.3913758173915</v>
       </c>
       <c r="I37" t="n">
-        <v>125.8253588837063</v>
+        <v>124.3913758173915</v>
       </c>
       <c r="J37" t="n">
-        <v>125.8253588837063</v>
+        <v>124.3913758173915</v>
       </c>
       <c r="K37" t="n">
-        <v>125.8253588837063</v>
+        <v>124.3913758173915</v>
       </c>
       <c r="L37" t="n">
-        <v>125.8253588837063</v>
+        <v>124.3913758173915</v>
       </c>
       <c r="M37" t="n">
-        <v>125.8253588837063</v>
+        <v>124.3913758173915</v>
       </c>
       <c r="N37" t="n">
-        <v>125.8253588837063</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="O37" t="n">
-        <v>125.8253588837063</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="P37" t="n">
-        <v>125.8253588837063</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.8253588837063</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="R37" t="n">
-        <v>125.8253588837063</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="S37" t="n">
-        <v>125.8253588837063</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="T37" t="n">
-        <v>125.8253588837063</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="U37" t="n">
-        <v>82.48530358384224</v>
+        <v>82.48530358384218</v>
       </c>
       <c r="V37" t="n">
-        <v>72.58466259902529</v>
+        <v>72.58466259902526</v>
       </c>
       <c r="W37" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="X37" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="Y37" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
     </row>
     <row r="38">
@@ -7148,61 +7148,61 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>840.4904359767104</v>
+        <v>840.49043597671</v>
       </c>
       <c r="C38" t="n">
-        <v>715.3890428585566</v>
+        <v>715.3890428585562</v>
       </c>
       <c r="D38" t="n">
-        <v>600.772864815498</v>
+        <v>600.7728648154975</v>
       </c>
       <c r="E38" t="n">
-        <v>459.3755726303292</v>
+        <v>459.3755726303288</v>
       </c>
       <c r="F38" t="n">
-        <v>293.558252439854</v>
+        <v>293.5582524398535</v>
       </c>
       <c r="G38" t="n">
-        <v>120.5536166582396</v>
+        <v>120.5536166582395</v>
       </c>
       <c r="H38" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="I38" t="n">
-        <v>83.72603010379389</v>
+        <v>83.7260301037939</v>
       </c>
       <c r="J38" t="n">
-        <v>187.1045791391201</v>
+        <v>361.2064541202873</v>
       </c>
       <c r="K38" t="n">
-        <v>271.4636959260337</v>
+        <v>710.3070749669599</v>
       </c>
       <c r="L38" t="n">
-        <v>429.088970367839</v>
+        <v>716.6045457534253</v>
       </c>
       <c r="M38" t="n">
-        <v>790.3509150877127</v>
+        <v>1077.866490473299</v>
       </c>
       <c r="N38" t="n">
-        <v>888.3029303807538</v>
+        <v>1175.81850576634</v>
       </c>
       <c r="O38" t="n">
-        <v>1249.564875100627</v>
+        <v>1175.81850576634</v>
       </c>
       <c r="P38" t="n">
-        <v>1330.487650170514</v>
+        <v>1256.741280836226</v>
       </c>
       <c r="Q38" t="n">
-        <v>1330.487650170514</v>
+        <v>1330.487650170513</v>
       </c>
       <c r="R38" t="n">
-        <v>1390.799352743783</v>
+        <v>1390.799352743782</v>
       </c>
       <c r="S38" t="n">
         <v>1437.745818867902</v>
       </c>
       <c r="T38" t="n">
-        <v>1459.644221090399</v>
+        <v>1459.644221090398</v>
       </c>
       <c r="U38" t="n">
         <v>1451.252897529258</v>
@@ -7211,13 +7211,13 @@
         <v>1364.991781336784</v>
       </c>
       <c r="W38" t="n">
-        <v>1256.511578802861</v>
+        <v>1256.51157880286</v>
       </c>
       <c r="X38" t="n">
-        <v>1127.494525631953</v>
+        <v>1127.494525631952</v>
       </c>
       <c r="Y38" t="n">
-        <v>982.4921465821898</v>
+        <v>982.4921465821894</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="C39" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="D39" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="E39" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="F39" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="G39" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="H39" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="I39" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="J39" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="K39" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="L39" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="M39" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="N39" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="O39" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="P39" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="Q39" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="R39" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="S39" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="T39" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="U39" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="V39" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="W39" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="X39" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="Y39" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.19288442180797</v>
+        <v>53.33506661976813</v>
       </c>
       <c r="C40" t="n">
-        <v>29.19288442180797</v>
+        <v>53.33506661976813</v>
       </c>
       <c r="D40" t="n">
-        <v>29.19288442180797</v>
+        <v>53.33506661976813</v>
       </c>
       <c r="E40" t="n">
-        <v>29.19288442180797</v>
+        <v>53.33506661976813</v>
       </c>
       <c r="F40" t="n">
-        <v>29.19288442180797</v>
+        <v>53.33506661976813</v>
       </c>
       <c r="G40" t="n">
-        <v>29.19288442180797</v>
+        <v>53.33506661976813</v>
       </c>
       <c r="H40" t="n">
-        <v>29.19288442180797</v>
+        <v>53.33506661976813</v>
       </c>
       <c r="I40" t="n">
-        <v>29.19288442180797</v>
+        <v>53.33506661976813</v>
       </c>
       <c r="J40" t="n">
-        <v>29.19288442180797</v>
+        <v>53.33506661976813</v>
       </c>
       <c r="K40" t="n">
-        <v>29.19288442180797</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="L40" t="n">
-        <v>125.8253588837063</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="M40" t="n">
-        <v>125.8253588837063</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="N40" t="n">
-        <v>125.8253588837063</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="O40" t="n">
-        <v>125.8253588837063</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="P40" t="n">
-        <v>125.8253588837063</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.8253588837063</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="R40" t="n">
-        <v>125.8253588837063</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="S40" t="n">
-        <v>125.8253588837063</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="T40" t="n">
-        <v>125.8253588837063</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="U40" t="n">
-        <v>82.48530358384224</v>
+        <v>82.48530358384218</v>
       </c>
       <c r="V40" t="n">
-        <v>72.58466259902529</v>
+        <v>72.58466259902526</v>
       </c>
       <c r="W40" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="X40" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="Y40" t="n">
-        <v>29.19288442180797</v>
+        <v>53.33506661976813</v>
       </c>
     </row>
     <row r="41">
@@ -7385,67 +7385,67 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>840.4904359767108</v>
+        <v>840.4904359767104</v>
       </c>
       <c r="C41" t="n">
-        <v>715.3890428585569</v>
+        <v>715.3890428585565</v>
       </c>
       <c r="D41" t="n">
-        <v>600.7728648154985</v>
+        <v>600.772864815498</v>
       </c>
       <c r="E41" t="n">
-        <v>459.3755726303298</v>
+        <v>459.3755726303291</v>
       </c>
       <c r="F41" t="n">
-        <v>293.5582524398546</v>
+        <v>293.5582524398537</v>
       </c>
       <c r="G41" t="n">
-        <v>120.5536166582396</v>
+        <v>120.5536166582395</v>
       </c>
       <c r="H41" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="I41" t="n">
-        <v>83.72603010379389</v>
+        <v>83.7260301037939</v>
       </c>
       <c r="J41" t="n">
-        <v>83.72603010379389</v>
+        <v>361.2064541202873</v>
       </c>
       <c r="K41" t="n">
-        <v>168.0851468907075</v>
+        <v>624.0519170557818</v>
       </c>
       <c r="L41" t="n">
-        <v>529.3470916105812</v>
+        <v>706.7756340137846</v>
       </c>
       <c r="M41" t="n">
-        <v>625.1453597648549</v>
+        <v>802.5739021680583</v>
       </c>
       <c r="N41" t="n">
-        <v>986.4073044847286</v>
+        <v>802.5739021680583</v>
       </c>
       <c r="O41" t="n">
-        <v>1079.312738433023</v>
+        <v>895.4793361163527</v>
       </c>
       <c r="P41" t="n">
-        <v>1262.826024269291</v>
+        <v>1256.741280836226</v>
       </c>
       <c r="Q41" t="n">
-        <v>1262.826024269291</v>
+        <v>1330.487650170513</v>
       </c>
       <c r="R41" t="n">
-        <v>1390.799352743783</v>
+        <v>1390.799352743782</v>
       </c>
       <c r="S41" t="n">
         <v>1437.745818867902</v>
       </c>
       <c r="T41" t="n">
-        <v>1459.644221090399</v>
+        <v>1459.644221090398</v>
       </c>
       <c r="U41" t="n">
         <v>1451.252897529258</v>
       </c>
       <c r="V41" t="n">
-        <v>1364.991781336785</v>
+        <v>1364.991781336784</v>
       </c>
       <c r="W41" t="n">
         <v>1256.511578802861</v>
@@ -7454,7 +7454,7 @@
         <v>1127.494525631953</v>
       </c>
       <c r="Y41" t="n">
-        <v>982.4921465821903</v>
+        <v>982.4921465821898</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="C42" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="D42" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="E42" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="F42" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="G42" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="H42" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="I42" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="J42" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="K42" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="L42" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="M42" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="N42" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="O42" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="P42" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="Q42" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="R42" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="S42" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="T42" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="U42" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="V42" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="W42" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="X42" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="Y42" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>70.15947961383263</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="C43" t="n">
-        <v>70.15947961383263</v>
+        <v>104.2330663469684</v>
       </c>
       <c r="D43" t="n">
-        <v>70.15947961383263</v>
+        <v>104.2330663469684</v>
       </c>
       <c r="E43" t="n">
-        <v>70.15947961383263</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="F43" t="n">
-        <v>70.15947961383263</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="G43" t="n">
-        <v>70.15947961383263</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="H43" t="n">
-        <v>70.15947961383263</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="I43" t="n">
-        <v>70.15947961383263</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="J43" t="n">
-        <v>70.15947961383263</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="K43" t="n">
-        <v>70.15947961383263</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="L43" t="n">
-        <v>70.15947961383263</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="M43" t="n">
-        <v>70.15947961383263</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="N43" t="n">
-        <v>70.15947961383263</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="O43" t="n">
-        <v>70.15947961383263</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="P43" t="n">
-        <v>125.8253588837063</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.8253588837063</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="R43" t="n">
-        <v>125.8253588837063</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="S43" t="n">
-        <v>125.8253588837063</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="T43" t="n">
-        <v>125.8253588837063</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="U43" t="n">
-        <v>82.48530358384224</v>
+        <v>82.48530358384218</v>
       </c>
       <c r="V43" t="n">
-        <v>72.58466259902529</v>
+        <v>72.58466259902526</v>
       </c>
       <c r="W43" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="X43" t="n">
-        <v>46.01729741587249</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="Y43" t="n">
-        <v>70.15947961383263</v>
+        <v>29.19288442180796</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>840.4904359767114</v>
+        <v>840.4904359767102</v>
       </c>
       <c r="C44" t="n">
-        <v>715.3890428585576</v>
+        <v>715.3890428585564</v>
       </c>
       <c r="D44" t="n">
-        <v>600.7728648154989</v>
+        <v>600.772864815498</v>
       </c>
       <c r="E44" t="n">
-        <v>459.3755726303297</v>
+        <v>459.3755726303292</v>
       </c>
       <c r="F44" t="n">
-        <v>293.5582524398544</v>
+        <v>293.558252439854</v>
       </c>
       <c r="G44" t="n">
-        <v>120.5536166582396</v>
+        <v>120.5536166582395</v>
       </c>
       <c r="H44" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="I44" t="n">
-        <v>83.72603010379389</v>
+        <v>83.7260301037939</v>
       </c>
       <c r="J44" t="n">
-        <v>361.2064541202872</v>
+        <v>187.1045791391201</v>
       </c>
       <c r="K44" t="n">
-        <v>603.4408445591652</v>
+        <v>255.0424525636599</v>
       </c>
       <c r="L44" t="n">
-        <v>686.164561517168</v>
+        <v>337.7661695216628</v>
       </c>
       <c r="M44" t="n">
-        <v>781.9628296714417</v>
+        <v>511.266180538651</v>
       </c>
       <c r="N44" t="n">
-        <v>1143.224774391315</v>
+        <v>609.2181958316921</v>
       </c>
       <c r="O44" t="n">
-        <v>1236.13020833961</v>
+        <v>609.2181958316921</v>
       </c>
       <c r="P44" t="n">
-        <v>1317.052983409496</v>
+        <v>970.4801405515657</v>
       </c>
       <c r="Q44" t="n">
-        <v>1390.799352743783</v>
+        <v>1262.826024269291</v>
       </c>
       <c r="R44" t="n">
-        <v>1390.799352743783</v>
+        <v>1390.799352743782</v>
       </c>
       <c r="S44" t="n">
         <v>1437.745818867902</v>
       </c>
       <c r="T44" t="n">
-        <v>1459.644221090399</v>
+        <v>1459.644221090398</v>
       </c>
       <c r="U44" t="n">
         <v>1451.252897529258</v>
       </c>
       <c r="V44" t="n">
-        <v>1364.991781336785</v>
+        <v>1364.991781336784</v>
       </c>
       <c r="W44" t="n">
-        <v>1256.511578802862</v>
+        <v>1256.511578802861</v>
       </c>
       <c r="X44" t="n">
-        <v>1127.494525631954</v>
+        <v>1127.494525631953</v>
       </c>
       <c r="Y44" t="n">
-        <v>982.4921465821909</v>
+        <v>982.4921465821897</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="C45" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="D45" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="E45" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="F45" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="G45" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="H45" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="I45" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="J45" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="K45" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="L45" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="M45" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="N45" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="O45" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="P45" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="Q45" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="R45" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="S45" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="T45" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="U45" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="V45" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="W45" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="X45" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="Y45" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="C46" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="D46" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="E46" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="F46" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="G46" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="H46" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="I46" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="J46" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="K46" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="L46" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="M46" t="n">
-        <v>125.8253588837063</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="N46" t="n">
-        <v>125.8253588837063</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="O46" t="n">
-        <v>125.8253588837063</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="P46" t="n">
-        <v>125.8253588837063</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.8253588837063</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="R46" t="n">
-        <v>125.8253588837063</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="S46" t="n">
-        <v>125.8253588837063</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="T46" t="n">
-        <v>125.8253588837063</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="U46" t="n">
-        <v>82.48530358384224</v>
+        <v>82.48530358384218</v>
       </c>
       <c r="V46" t="n">
-        <v>72.58466259902529</v>
+        <v>72.58466259902526</v>
       </c>
       <c r="W46" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="X46" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="Y46" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
     </row>
   </sheetData>
@@ -8690,7 +8690,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>157.9234874142799</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8705,13 +8705,13 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>161.3945396537014</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>68.34507666790174</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8848,25 +8848,25 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>83.44806736205518</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>42.99101823646663</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>106.751788516009</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8927,7 +8927,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>157.9234874142799</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>81.30719271909717</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9085,25 +9085,25 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>102.5727324697714</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>101.8051034503207</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>104.1302923698531</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>106.751788516009</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>83.55399130834844</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>138.7119396886106</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>34.76283216730759</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>375.1214732141558</v>
+        <v>411.1131491941702</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>146.3687890634111</v>
       </c>
       <c r="N26" t="n">
-        <v>356.4862498762808</v>
+        <v>356.4862498762809</v>
       </c>
       <c r="O26" t="n">
-        <v>396.0321885132552</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q26" t="n">
         <v>220.8075902863009</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9966,10 +9966,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>82.32375190725111</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>85.11220969290977</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10030,22 +10030,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>34.98169097563226</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>102.5727324697714</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>104.1302923698531</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>106.751788516009</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1112290740114</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>112.3953460909712</v>
       </c>
       <c r="M29" t="n">
-        <v>348.9585014794041</v>
+        <v>467.4940748325458</v>
       </c>
       <c r="N29" t="n">
-        <v>356.4862498762808</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>361.5838067901665</v>
+        <v>361.5838067901666</v>
       </c>
       <c r="P29" t="n">
-        <v>101.0092204402345</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,13 +10185,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>10.53077703452832</v>
       </c>
       <c r="J30" t="n">
-        <v>101.1486090703221</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>86.2274562587456</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10212,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>47.34253660377365</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10270,13 +10270,13 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>102.5727324697714</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>101.8051034503207</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>104.1302923698531</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -10285,7 +10285,7 @@
         <v>106.751788516009</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>110.1177504068043</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -10349,19 +10349,19 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1112290740114</v>
+        <v>157.9234874142799</v>
       </c>
       <c r="L32" t="n">
-        <v>406.8756144165786</v>
+        <v>434.3676631324684</v>
       </c>
       <c r="M32" t="n">
-        <v>467.4940748325458</v>
+        <v>358.661752036652</v>
       </c>
       <c r="N32" t="n">
-        <v>356.4862498762809</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>361.5838067901666</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,10 +10425,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>101.1486090703221</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>34.57031364738104</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10440,10 +10440,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>82.32375190725111</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>85.11220969290977</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10507,25 +10507,25 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>102.5727324697714</v>
       </c>
       <c r="L34" t="n">
-        <v>101.8051034503207</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>93.91583427681479</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>110.1177504068043</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10589,25 +10589,25 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>281.3517452140109</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>368.6687905632529</v>
+        <v>268.1451278440402</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>95.30507090358604</v>
+        <v>149.2908438169256</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>283.1708784343305</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>72.79817437332139</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10741,7 +10741,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>34.98169097563226</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -10756,13 +10756,13 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>106.751788516009</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>110.1177504068043</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>67.95667671286152</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10820,28 +10820,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>267.4156606664233</v>
       </c>
       <c r="L38" t="n">
-        <v>75.65813887252773</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>268.1451278440404</v>
+        <v>268.1451278440402</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>271.0671825975548</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>88.40957837199623</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -10908,19 +10908,19 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>78.19029710175246</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>82.32375190725108</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>106.0581031398714</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -10978,7 +10978,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>34.98169097563226</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -10987,7 +10987,7 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>104.1302923698531</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -10999,7 +10999,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>67.95667671286152</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11057,31 +11057,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>180.2892385339201</v>
       </c>
       <c r="L41" t="n">
-        <v>281.3517452140109</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>265.9696256836692</v>
+        <v>89.82494203510645</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>103.626778551901</v>
+        <v>283.1708784343306</v>
       </c>
       <c r="Q41" t="n">
-        <v>28.64894805337842</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>68.34507666790174</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11139,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>95.90842290065684</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11218,22 +11218,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>102.5727324697714</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>101.8051034503207</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>93.91583427681481</v>
       </c>
       <c r="O43" t="n">
-        <v>106.751788516009</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>110.1177504068043</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -11294,28 +11294,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>175.8604797789567</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>159.4699733858226</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>78.48660895223685</v>
       </c>
       <c r="N44" t="n">
-        <v>342.9100937465325</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>149.2908438169256</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>283.1708784343305</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R44" t="n">
         <v>68.34507666790174</v>
@@ -11382,7 +11382,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>78.19029710175246</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11452,10 +11452,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>34.98169097563226</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>102.5727324697714</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -11470,10 +11470,10 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>110.1177504068043</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>67.95667671286152</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>96.86936004331402</v>
+        <v>165.2663860313839</v>
       </c>
       <c r="C11" t="n">
         <v>148.5350717189315</v>
       </c>
       <c r="D11" t="n">
-        <v>77.91060830429532</v>
+        <v>110.9027111617832</v>
       </c>
       <c r="E11" t="n">
         <v>164.6680117952763</v>
@@ -23270,7 +23270,7 @@
         <v>188.8438395205297</v>
       </c>
       <c r="G11" t="n">
-        <v>127.5622559676878</v>
+        <v>127.5622559676877</v>
       </c>
       <c r="H11" t="n">
         <v>115.1318174460265</v>
@@ -23312,13 +23312,13 @@
         <v>2.565094327417468</v>
       </c>
       <c r="U11" t="n">
-        <v>32.99210285748831</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>110.0831975625082</v>
+        <v>41.68617157443822</v>
       </c>
       <c r="W11" t="n">
-        <v>63.68306705247356</v>
+        <v>63.68306705247346</v>
       </c>
       <c r="X11" t="n">
         <v>152.4115751711582</v>
@@ -23504,13 +23504,13 @@
         <v>164.6680117952763</v>
       </c>
       <c r="F14" t="n">
-        <v>188.8438395205297</v>
+        <v>161.591841887726</v>
       </c>
       <c r="G14" t="n">
-        <v>195.9592819557577</v>
+        <v>127.5622559676878</v>
       </c>
       <c r="H14" t="n">
-        <v>115.1318174460265</v>
+        <v>46.73479145795659</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>2.565094327417468</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>41.68617157443832</v>
+        <v>110.0831975625082</v>
       </c>
       <c r="W14" t="n">
-        <v>63.68306705247356</v>
+        <v>132.0800930405434</v>
       </c>
       <c r="X14" t="n">
-        <v>84.01454918308836</v>
+        <v>152.4115751711582</v>
       </c>
       <c r="Y14" t="n">
-        <v>143.5501444858367</v>
+        <v>99.84002180315474</v>
       </c>
     </row>
     <row r="15">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>867612.9346274995</v>
+        <v>867612.9346274997</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>867612.9346274998</v>
+        <v>867612.9346274995</v>
       </c>
     </row>
     <row r="7">
@@ -26311,40 +26311,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>426382.0983217637</v>
+        <v>426382.0983217638</v>
       </c>
       <c r="C2" t="n">
         <v>426382.0983217638</v>
       </c>
       <c r="D2" t="n">
-        <v>426382.0983217639</v>
+        <v>426382.0983217637</v>
       </c>
       <c r="E2" t="n">
-        <v>366733.3749817992</v>
+        <v>366733.3749817993</v>
       </c>
       <c r="F2" t="n">
-        <v>366733.3749817993</v>
+        <v>366733.3749817994</v>
       </c>
       <c r="G2" t="n">
+        <v>427307.6895228417</v>
+      </c>
+      <c r="H2" t="n">
+        <v>427307.6895228417</v>
+      </c>
+      <c r="I2" t="n">
         <v>427307.6895228416</v>
-      </c>
-      <c r="H2" t="n">
-        <v>427307.6895228416</v>
-      </c>
-      <c r="I2" t="n">
-        <v>427307.6895228415</v>
       </c>
       <c r="J2" t="n">
         <v>427307.6895228416</v>
       </c>
       <c r="K2" t="n">
-        <v>427307.6895228417</v>
+        <v>427307.6895228418</v>
       </c>
       <c r="L2" t="n">
         <v>427307.6895228415</v>
       </c>
       <c r="M2" t="n">
-        <v>427307.6895228417</v>
+        <v>427307.6895228416</v>
       </c>
       <c r="N2" t="n">
         <v>427307.6895228417</v>
@@ -26353,7 +26353,7 @@
         <v>427307.6895228417</v>
       </c>
       <c r="P2" t="n">
-        <v>427307.6895228418</v>
+        <v>427307.6895228417</v>
       </c>
     </row>
     <row r="3">
@@ -26396,7 +26396,7 @@
         <v>105664.0744324347</v>
       </c>
       <c r="M3" t="n">
-        <v>17695.67856363344</v>
+        <v>17695.67856363346</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26433,13 +26433,13 @@
         <v>426193.4292983836</v>
       </c>
       <c r="H4" t="n">
-        <v>426193.4292983837</v>
+        <v>426193.4292983836</v>
       </c>
       <c r="I4" t="n">
         <v>426193.4292983836</v>
       </c>
       <c r="J4" t="n">
-        <v>434774.7393444278</v>
+        <v>434774.7393444277</v>
       </c>
       <c r="K4" t="n">
         <v>434774.7393444277</v>
@@ -26448,13 +26448,13 @@
         <v>434774.7393444277</v>
       </c>
       <c r="M4" t="n">
-        <v>431062.8369613772</v>
+        <v>431062.8369613773</v>
       </c>
       <c r="N4" t="n">
         <v>431062.8369613772</v>
       </c>
       <c r="O4" t="n">
-        <v>431062.8369613772</v>
+        <v>431062.8369613773</v>
       </c>
       <c r="P4" t="n">
         <v>431062.8369613772</v>
@@ -26476,10 +26476,10 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>24939.02968325744</v>
+        <v>24939.02968325745</v>
       </c>
       <c r="F5" t="n">
-        <v>24939.02968325744</v>
+        <v>24939.02968325745</v>
       </c>
       <c r="G5" t="n">
         <v>36042.87102508289</v>
@@ -26500,16 +26500,16 @@
         <v>47341.26675884315</v>
       </c>
       <c r="M5" t="n">
-        <v>45042.30008022614</v>
+        <v>45042.30008022613</v>
       </c>
       <c r="N5" t="n">
-        <v>45042.30008022614</v>
+        <v>45042.30008022613</v>
       </c>
       <c r="O5" t="n">
-        <v>45042.30008022614</v>
+        <v>45042.30008022613</v>
       </c>
       <c r="P5" t="n">
-        <v>45042.30008022614</v>
+        <v>45042.30008022613</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-70797.62231392789</v>
+        <v>-70802.02989107581</v>
       </c>
       <c r="C6" t="n">
-        <v>-70797.62231392783</v>
+        <v>-70802.02989107581</v>
       </c>
       <c r="D6" t="n">
-        <v>-70797.62231392777</v>
+        <v>-70802.02989107587</v>
       </c>
       <c r="E6" t="n">
-        <v>-303869.7150208316</v>
+        <v>-304158.1641376935</v>
       </c>
       <c r="F6" t="n">
-        <v>-19664.33071683212</v>
+        <v>-19952.77983369418</v>
       </c>
       <c r="G6" t="n">
-        <v>-140592.6852330597</v>
+        <v>-140592.6852330596</v>
       </c>
       <c r="H6" t="n">
-        <v>-34928.610800625</v>
+        <v>-34928.61080062488</v>
       </c>
       <c r="I6" t="n">
-        <v>-34928.610800625</v>
+        <v>-34928.61080062494</v>
       </c>
       <c r="J6" t="n">
         <v>-221433.1249236815</v>
       </c>
       <c r="K6" t="n">
-        <v>-54808.31658042915</v>
+        <v>-54808.31658042909</v>
       </c>
       <c r="L6" t="n">
         <v>-160472.391012864</v>
       </c>
       <c r="M6" t="n">
-        <v>-66493.12608239507</v>
+        <v>-66493.12608239529</v>
       </c>
       <c r="N6" t="n">
+        <v>-48797.44751876171</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-119945.4677162699</v>
+      </c>
+      <c r="P6" t="n">
         <v>-48797.44751876166</v>
-      </c>
-      <c r="O6" t="n">
-        <v>-119945.4677162698</v>
-      </c>
-      <c r="P6" t="n">
-        <v>-48797.4475187616</v>
       </c>
     </row>
   </sheetData>
@@ -26796,10 +26796,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>68.39702598806987</v>
+        <v>68.39702598806997</v>
       </c>
       <c r="F4" t="n">
-        <v>68.39702598806987</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="G4" t="n">
         <v>68.39702598806993</v>
@@ -26820,16 +26820,16 @@
         <v>433.3080812606695</v>
       </c>
       <c r="M4" t="n">
-        <v>364.9110552725996</v>
+        <v>364.9110552725995</v>
       </c>
       <c r="N4" t="n">
-        <v>364.9110552725996</v>
+        <v>364.9110552725995</v>
       </c>
       <c r="O4" t="n">
-        <v>364.9110552725996</v>
+        <v>364.9110552725995</v>
       </c>
       <c r="P4" t="n">
-        <v>364.9110552725996</v>
+        <v>364.9110552725995</v>
       </c>
     </row>
   </sheetData>
@@ -26938,7 +26938,7 @@
         <v>132.0800930405434</v>
       </c>
       <c r="M2" t="n">
-        <v>22.1195982045418</v>
+        <v>22.11959820454183</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>68.39702598806987</v>
+        <v>68.39702598806997</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>68.39702598806987</v>
+        <v>68.39702598806997</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28108,13 +28108,13 @@
         <v>218.4500239600112</v>
       </c>
       <c r="I11" t="n">
-        <v>188.0507309546109</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="J11" t="n">
-        <v>207.1089656766804</v>
+        <v>138.7119396886106</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="L11" t="n">
         <v>159.5754064333817</v>
@@ -28123,19 +28123,19 @@
         <v>146.3687890634111</v>
       </c>
       <c r="N11" t="n">
-        <v>212.5903128911098</v>
+        <v>212.5903128911099</v>
       </c>
       <c r="O11" t="n">
-        <v>153.7233253406446</v>
+        <v>201.8203765495677</v>
       </c>
       <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>168.6434343361249</v>
+      </c>
+      <c r="R11" t="n">
         <v>218.4500239600112</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>218.4500239600112</v>
-      </c>
-      <c r="R11" t="n">
-        <v>113.8687281338977</v>
       </c>
       <c r="S11" t="n">
         <v>218.4500239600112</v>
@@ -28193,28 +28193,28 @@
         <v>101.1486090703221</v>
       </c>
       <c r="K12" t="n">
-        <v>95.90842290065683</v>
+        <v>95.90842290065684</v>
       </c>
       <c r="L12" t="n">
-        <v>83.3400259534659</v>
+        <v>83.34002595346591</v>
       </c>
       <c r="M12" t="n">
-        <v>78.19029710175245</v>
+        <v>78.19029710175246</v>
       </c>
       <c r="N12" t="n">
         <v>66.06942948955182</v>
       </c>
       <c r="O12" t="n">
-        <v>82.32375190725108</v>
+        <v>134.5526087511657</v>
       </c>
       <c r="P12" t="n">
-        <v>85.11220969290976</v>
+        <v>85.11220969290977</v>
       </c>
       <c r="Q12" t="n">
         <v>106.0581031398714</v>
       </c>
       <c r="R12" t="n">
-        <v>179.4682720520774</v>
+        <v>127.2394152081627</v>
       </c>
       <c r="S12" t="n">
         <v>164.5345187941275</v>
@@ -28245,16 +28245,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>218.4500239600112</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C13" t="n">
         <v>167.3365529312023</v>
       </c>
       <c r="D13" t="n">
-        <v>217.4025925025892</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E13" t="n">
-        <v>215.371650161269</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F13" t="n">
         <v>146.1590214098045</v>
@@ -28272,25 +28272,25 @@
         <v>109.6934180900282</v>
       </c>
       <c r="K13" t="n">
-        <v>118.3755070535734</v>
+        <v>19.12466510771619</v>
       </c>
       <c r="L13" t="n">
-        <v>101.8051034503207</v>
+        <v>155.9742105034499</v>
       </c>
       <c r="M13" t="n">
-        <v>61.13927413338646</v>
+        <v>172.5273183579231</v>
       </c>
       <c r="N13" t="n">
-        <v>93.91583427681479</v>
+        <v>162.3128602648848</v>
       </c>
       <c r="O13" t="n">
-        <v>106.751788516009</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>110.1177504068043</v>
       </c>
       <c r="Q13" t="n">
-        <v>130.9853613927381</v>
+        <v>63.02868467987656</v>
       </c>
       <c r="R13" t="n">
         <v>164.4066131828346</v>
@@ -28348,22 +28348,22 @@
         <v>218.4500239600112</v>
       </c>
       <c r="J14" t="n">
-        <v>207.1089656766804</v>
+        <v>138.7119396886106</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>157.9234874142799</v>
       </c>
       <c r="L14" t="n">
-        <v>159.5754064333817</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="M14" t="n">
-        <v>146.3687890634111</v>
+        <v>152.6603663638568</v>
       </c>
       <c r="N14" t="n">
-        <v>62.8860941839428</v>
+        <v>144.19328690304</v>
       </c>
       <c r="O14" t="n">
-        <v>178.220819485789</v>
+        <v>217.6878698049956</v>
       </c>
       <c r="P14" t="n">
         <v>218.4500239600112</v>
@@ -28372,7 +28372,7 @@
         <v>218.4500239600112</v>
       </c>
       <c r="R14" t="n">
-        <v>218.4500239600112</v>
+        <v>113.8687281338978</v>
       </c>
       <c r="S14" t="n">
         <v>195.7140436393247</v>
@@ -28430,22 +28430,22 @@
         <v>101.1486090703221</v>
       </c>
       <c r="K15" t="n">
-        <v>95.90842290065683</v>
+        <v>95.90842290065684</v>
       </c>
       <c r="L15" t="n">
-        <v>83.3400259534659</v>
+        <v>83.34002595346591</v>
       </c>
       <c r="M15" t="n">
-        <v>78.19029710175245</v>
+        <v>116.4307595941342</v>
       </c>
       <c r="N15" t="n">
         <v>66.06942948955182</v>
       </c>
       <c r="O15" t="n">
-        <v>82.32375190725108</v>
+        <v>82.32375190725111</v>
       </c>
       <c r="P15" t="n">
-        <v>137.3410665368244</v>
+        <v>85.11220969290977</v>
       </c>
       <c r="Q15" t="n">
         <v>106.0581031398714</v>
@@ -28469,7 +28469,7 @@
         <v>218.4500239600112</v>
       </c>
       <c r="X15" t="n">
-        <v>204.4616296084783</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="Y15" t="n">
         <v>203.671151418586</v>
@@ -28482,10 +28482,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>180.0836914906838</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="C16" t="n">
-        <v>167.3365529312023</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="D16" t="n">
         <v>149.0055665145194</v>
@@ -28503,34 +28503,34 @@
         <v>159.857510195687</v>
       </c>
       <c r="I16" t="n">
-        <v>216.1465068568801</v>
+        <v>195.1894256227666</v>
       </c>
       <c r="J16" t="n">
-        <v>163.8625251431576</v>
+        <v>109.6934180900282</v>
       </c>
       <c r="K16" t="n">
-        <v>102.5727324697714</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>101.8051034503207</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>172.527318357923</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>93.91583427681479</v>
+        <v>93.91583427681481</v>
       </c>
       <c r="O16" t="n">
-        <v>106.751788516009</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>110.1177504068043</v>
+        <v>26.56375909845591</v>
       </c>
       <c r="Q16" t="n">
-        <v>130.9853613927381</v>
+        <v>63.02868467987656</v>
       </c>
       <c r="R16" t="n">
-        <v>164.4066131828346</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="S16" t="n">
         <v>218.4500239600112</v>
@@ -28585,13 +28585,13 @@
         <v>188.0507309546109</v>
       </c>
       <c r="J17" t="n">
-        <v>138.7119396886106</v>
+        <v>207.1089656766805</v>
       </c>
       <c r="K17" t="n">
         <v>157.9234874142799</v>
       </c>
       <c r="L17" t="n">
-        <v>159.5754064333817</v>
+        <v>186.2637451473612</v>
       </c>
       <c r="M17" t="n">
         <v>146.3687890634111</v>
@@ -28603,25 +28603,25 @@
         <v>149.2908438169256</v>
       </c>
       <c r="P17" t="n">
-        <v>161.3945396537013</v>
+        <v>161.3945396537014</v>
       </c>
       <c r="Q17" t="n">
         <v>168.6434343361249</v>
       </c>
       <c r="R17" t="n">
-        <v>230.8990389938143</v>
+        <v>250.6108307898695</v>
       </c>
       <c r="S17" t="n">
-        <v>264.1110696273946</v>
+        <v>195.7140436393247</v>
       </c>
       <c r="T17" t="n">
-        <v>289.4121442754985</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="U17" t="n">
         <v>319.8391528055694</v>
       </c>
       <c r="V17" t="n">
-        <v>328.5332215225193</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="W17" t="n">
         <v>350.5301170005546</v>
@@ -28667,22 +28667,22 @@
         <v>101.1486090703221</v>
       </c>
       <c r="K18" t="n">
-        <v>95.90842290065683</v>
+        <v>95.90842290065684</v>
       </c>
       <c r="L18" t="n">
-        <v>83.3400259534659</v>
+        <v>83.34002595346591</v>
       </c>
       <c r="M18" t="n">
-        <v>78.19029710175245</v>
+        <v>78.19029710175246</v>
       </c>
       <c r="N18" t="n">
         <v>66.06942948955182</v>
       </c>
       <c r="O18" t="n">
-        <v>82.32375190725108</v>
+        <v>82.32375190725111</v>
       </c>
       <c r="P18" t="n">
-        <v>85.11220969290976</v>
+        <v>85.11220969290977</v>
       </c>
       <c r="Q18" t="n">
         <v>106.0581031398714</v>
@@ -28755,7 +28755,7 @@
         <v>104.1302923698531</v>
       </c>
       <c r="N19" t="n">
-        <v>93.91583427681479</v>
+        <v>93.91583427681481</v>
       </c>
       <c r="O19" t="n">
         <v>106.751788516009</v>
@@ -28816,22 +28816,22 @@
         <v>350.5301170005546</v>
       </c>
       <c r="H20" t="n">
-        <v>350.5301170005546</v>
+        <v>333.5818414060377</v>
       </c>
       <c r="I20" t="n">
-        <v>188.0507309546109</v>
+        <v>256.4477569426808</v>
       </c>
       <c r="J20" t="n">
-        <v>207.1089656766805</v>
+        <v>138.7119396886106</v>
       </c>
       <c r="K20" t="n">
-        <v>157.9234874142799</v>
+        <v>226.3205134023498</v>
       </c>
       <c r="L20" t="n">
-        <v>227.9724324214516</v>
+        <v>159.5754064333817</v>
       </c>
       <c r="M20" t="n">
-        <v>214.765815051481</v>
+        <v>212.0022988499429</v>
       </c>
       <c r="N20" t="n">
         <v>144.19328690304</v>
@@ -28840,7 +28840,7 @@
         <v>149.2908438169256</v>
       </c>
       <c r="P20" t="n">
-        <v>210.0797738457161</v>
+        <v>161.3945396537014</v>
       </c>
       <c r="Q20" t="n">
         <v>168.6434343361249</v>
@@ -28849,7 +28849,7 @@
         <v>182.2138048017995</v>
       </c>
       <c r="S20" t="n">
-        <v>195.7140436393247</v>
+        <v>264.1110696273947</v>
       </c>
       <c r="T20" t="n">
         <v>221.0151182874286</v>
@@ -28904,22 +28904,22 @@
         <v>101.1486090703221</v>
       </c>
       <c r="K21" t="n">
-        <v>95.90842290065683</v>
+        <v>95.90842290065684</v>
       </c>
       <c r="L21" t="n">
-        <v>83.3400259534659</v>
+        <v>83.34002595346591</v>
       </c>
       <c r="M21" t="n">
-        <v>78.19029710175245</v>
+        <v>78.19029710175246</v>
       </c>
       <c r="N21" t="n">
         <v>66.06942948955182</v>
       </c>
       <c r="O21" t="n">
-        <v>82.32375190725108</v>
+        <v>82.32375190725111</v>
       </c>
       <c r="P21" t="n">
-        <v>85.11220969290976</v>
+        <v>85.11220969290977</v>
       </c>
       <c r="Q21" t="n">
         <v>106.0581031398714</v>
@@ -28992,7 +28992,7 @@
         <v>104.1302923698531</v>
       </c>
       <c r="N22" t="n">
-        <v>93.91583427681479</v>
+        <v>93.91583427681481</v>
       </c>
       <c r="O22" t="n">
         <v>106.751788516009</v>
@@ -29053,13 +29053,13 @@
         <v>350.5301170005546</v>
       </c>
       <c r="H23" t="n">
-        <v>350.5301170005546</v>
+        <v>333.5818414060377</v>
       </c>
       <c r="I23" t="n">
-        <v>188.0507309546109</v>
+        <v>256.4477569426808</v>
       </c>
       <c r="J23" t="n">
-        <v>207.1089656766805</v>
+        <v>138.7119396886106</v>
       </c>
       <c r="K23" t="n">
         <v>157.9234874142799</v>
@@ -29068,16 +29068,16 @@
         <v>159.5754064333817</v>
       </c>
       <c r="M23" t="n">
-        <v>214.765815051481</v>
+        <v>146.3687890634111</v>
       </c>
       <c r="N23" t="n">
-        <v>170.8816256170195</v>
+        <v>144.19328690304</v>
       </c>
       <c r="O23" t="n">
         <v>149.2908438169256</v>
       </c>
       <c r="P23" t="n">
-        <v>161.3945396537013</v>
+        <v>161.3945396537014</v>
       </c>
       <c r="Q23" t="n">
         <v>168.6434343361249</v>
@@ -29089,10 +29089,10 @@
         <v>264.1110696273946</v>
       </c>
       <c r="T23" t="n">
-        <v>221.0151182874286</v>
+        <v>289.4121442754985</v>
       </c>
       <c r="U23" t="n">
-        <v>251.4421268174995</v>
+        <v>295.0787411259959</v>
       </c>
       <c r="V23" t="n">
         <v>350.5301170005546</v>
@@ -29141,22 +29141,22 @@
         <v>101.1486090703221</v>
       </c>
       <c r="K24" t="n">
-        <v>95.90842290065683</v>
+        <v>95.90842290065684</v>
       </c>
       <c r="L24" t="n">
-        <v>83.3400259534659</v>
+        <v>83.34002595346591</v>
       </c>
       <c r="M24" t="n">
-        <v>78.19029710175245</v>
+        <v>78.19029710175246</v>
       </c>
       <c r="N24" t="n">
         <v>66.06942948955182</v>
       </c>
       <c r="O24" t="n">
-        <v>82.32375190725108</v>
+        <v>82.32375190725111</v>
       </c>
       <c r="P24" t="n">
-        <v>85.11220969290976</v>
+        <v>85.11220969290977</v>
       </c>
       <c r="Q24" t="n">
         <v>106.0581031398714</v>
@@ -29229,7 +29229,7 @@
         <v>104.1302923698531</v>
       </c>
       <c r="N25" t="n">
-        <v>93.91583427681479</v>
+        <v>93.91583427681481</v>
       </c>
       <c r="O25" t="n">
         <v>106.751788516009</v>
@@ -29296,22 +29296,22 @@
         <v>221.0151182874286</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>138.7119396886106</v>
       </c>
       <c r="K26" t="n">
-        <v>221.0151182874286</v>
+        <v>174.1498912088395</v>
       </c>
       <c r="L26" t="n">
-        <v>217.7620144798954</v>
+        <v>181.7703384998809</v>
       </c>
       <c r="M26" t="n">
-        <v>221.0151182874286</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>221.0151182874286</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>149.2908438169256</v>
       </c>
       <c r="P26" t="n">
         <v>221.0151182874286</v>
@@ -29351,13 +29351,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>209.7494540568997</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C27" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D27" t="n">
-        <v>146.1124235746456</v>
+        <v>166.8964807760466</v>
       </c>
       <c r="E27" t="n">
         <v>156.0334337071738</v>
@@ -29378,22 +29378,22 @@
         <v>101.1486090703221</v>
       </c>
       <c r="K27" t="n">
-        <v>95.90842290065683</v>
+        <v>95.90842290065684</v>
       </c>
       <c r="L27" t="n">
-        <v>83.3400259534659</v>
+        <v>83.34002595346591</v>
       </c>
       <c r="M27" t="n">
-        <v>78.19029710175245</v>
+        <v>78.19029710175246</v>
       </c>
       <c r="N27" t="n">
         <v>66.06942948955182</v>
       </c>
       <c r="O27" t="n">
-        <v>82.32375190725108</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>85.11220969290976</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>106.0581031398714</v>
@@ -29405,7 +29405,7 @@
         <v>164.5345187941275</v>
       </c>
       <c r="T27" t="n">
-        <v>197.4218470422748</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="U27" t="n">
         <v>221.0151182874286</v>
@@ -29451,25 +29451,25 @@
         <v>159.857510195687</v>
       </c>
       <c r="I28" t="n">
-        <v>221.0151182874286</v>
+        <v>147.7494808688102</v>
       </c>
       <c r="J28" t="n">
-        <v>74.7117271143959</v>
+        <v>109.6934180900282</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>102.5727324697714</v>
       </c>
       <c r="L28" t="n">
         <v>101.8051034503207</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>104.1302923698531</v>
       </c>
       <c r="N28" t="n">
-        <v>122.932929442164</v>
+        <v>93.91583427681481</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>209.0345210999766</v>
       </c>
       <c r="P28" t="n">
         <v>110.1177504068043</v>
@@ -29530,19 +29530,19 @@
         <v>221.0151182874286</v>
       </c>
       <c r="I29" t="n">
-        <v>188.0507309546109</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="J29" t="n">
-        <v>138.7119396886106</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>221.0151182874286</v>
       </c>
       <c r="L29" t="n">
-        <v>159.5754064333817</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="M29" t="n">
-        <v>221.0151182874286</v>
+        <v>112.1827954915348</v>
       </c>
       <c r="N29" t="n">
         <v>221.0151182874286</v>
@@ -29551,13 +29551,13 @@
         <v>221.0151182874286</v>
       </c>
       <c r="P29" t="n">
-        <v>60.38531921346685</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="Q29" t="n">
-        <v>168.6434343361249</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="R29" t="n">
-        <v>182.2138048017995</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="S29" t="n">
         <v>221.0151182874286</v>
@@ -29591,7 +29591,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C30" t="n">
-        <v>171.025583927401</v>
+        <v>198.8494236950055</v>
       </c>
       <c r="D30" t="n">
         <v>146.1124235746456</v>
@@ -29603,40 +29603,40 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G30" t="n">
-        <v>163.6087081342936</v>
+        <v>135.7848683666891</v>
       </c>
       <c r="H30" t="n">
         <v>108.160635135932</v>
       </c>
       <c r="I30" t="n">
-        <v>88.82825281985647</v>
+        <v>78.29747578532815</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>101.1486090703221</v>
       </c>
       <c r="K30" t="n">
-        <v>95.90842290065683</v>
+        <v>9.680966641911237</v>
       </c>
       <c r="L30" t="n">
-        <v>83.3400259534659</v>
+        <v>83.34002595346591</v>
       </c>
       <c r="M30" t="n">
-        <v>78.19029710175245</v>
+        <v>78.19029710175246</v>
       </c>
       <c r="N30" t="n">
         <v>66.06942948955182</v>
       </c>
       <c r="O30" t="n">
-        <v>82.32375190725108</v>
+        <v>82.32375190725111</v>
       </c>
       <c r="P30" t="n">
-        <v>85.11220969290976</v>
+        <v>85.11220969290977</v>
       </c>
       <c r="Q30" t="n">
         <v>106.0581031398714</v>
       </c>
       <c r="R30" t="n">
-        <v>79.89687860438909</v>
+        <v>127.2394152081627</v>
       </c>
       <c r="S30" t="n">
         <v>164.5345187941275</v>
@@ -29670,10 +29670,10 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C31" t="n">
-        <v>167.3365529312023</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="D31" t="n">
-        <v>221.0151182874286</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E31" t="n">
         <v>146.9746241731992</v>
@@ -29682,40 +29682,40 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G31" t="n">
-        <v>182.789291933246</v>
+        <v>167.689771139254</v>
       </c>
       <c r="H31" t="n">
         <v>159.857510195687</v>
       </c>
       <c r="I31" t="n">
-        <v>147.7494808688102</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="J31" t="n">
         <v>74.7117271143959</v>
       </c>
       <c r="K31" t="n">
-        <v>102.5727324697714</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>101.8051034503207</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>104.1302923698531</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>93.91583427681479</v>
+        <v>93.91583427681481</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>110.1177504068043</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>221.0151182874286</v>
+        <v>130.9853613927381</v>
       </c>
       <c r="R31" t="n">
-        <v>164.4066131828346</v>
+        <v>214.6012398695816</v>
       </c>
       <c r="S31" t="n">
         <v>218.8751278244474</v>
@@ -29767,34 +29767,34 @@
         <v>221.0151182874286</v>
       </c>
       <c r="I32" t="n">
-        <v>188.0507309546109</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="J32" t="n">
-        <v>169.4672101523947</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>158.5158245615827</v>
+      </c>
+      <c r="M32" t="n">
         <v>221.0151182874286</v>
       </c>
-      <c r="L32" t="n">
-        <v>186.0078732774726</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
       <c r="N32" t="n">
-        <v>221.0151182874286</v>
+        <v>200.2866776227547</v>
       </c>
       <c r="O32" t="n">
         <v>221.0151182874286</v>
       </c>
       <c r="P32" t="n">
-        <v>161.3945396537013</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="Q32" t="n">
-        <v>168.6434343361249</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="R32" t="n">
-        <v>182.2138048017995</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="S32" t="n">
         <v>221.0151182874286</v>
@@ -29840,7 +29840,7 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G33" t="n">
-        <v>180.162196813244</v>
+        <v>135.7848683666891</v>
       </c>
       <c r="H33" t="n">
         <v>108.160635135932</v>
@@ -29849,25 +29849,25 @@
         <v>88.82825281985647</v>
       </c>
       <c r="J33" t="n">
-        <v>101.1486090703221</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>95.90842290065683</v>
+        <v>61.3381092532758</v>
       </c>
       <c r="L33" t="n">
-        <v>83.3400259534659</v>
+        <v>83.34002595346591</v>
       </c>
       <c r="M33" t="n">
-        <v>78.19029710175245</v>
+        <v>78.19029710175246</v>
       </c>
       <c r="N33" t="n">
-        <v>66.06942948955182</v>
+        <v>110.4467579361067</v>
       </c>
       <c r="O33" t="n">
-        <v>82.32375190725108</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>85.11220969290976</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>106.0581031398714</v>
@@ -29910,10 +29910,10 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D34" t="n">
+        <v>149.0055665145194</v>
+      </c>
+      <c r="E34" t="n">
         <v>221.0151182874286</v>
-      </c>
-      <c r="E34" t="n">
-        <v>146.9746241731992</v>
       </c>
       <c r="F34" t="n">
         <v>146.1590214098045</v>
@@ -29922,7 +29922,7 @@
         <v>167.689771139254</v>
       </c>
       <c r="H34" t="n">
-        <v>159.857510195687</v>
+        <v>204.0808960187951</v>
       </c>
       <c r="I34" t="n">
         <v>147.7494808688102</v>
@@ -29931,28 +29931,28 @@
         <v>109.6934180900282</v>
       </c>
       <c r="K34" t="n">
-        <v>117.6722532637636</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>101.8051034503207</v>
       </c>
       <c r="M34" t="n">
         <v>104.1302923698531</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>93.91583427681481</v>
       </c>
       <c r="O34" t="n">
         <v>106.751788516009</v>
       </c>
       <c r="P34" t="n">
-        <v>110.1177504068043</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
+        <v>63.02868467987656</v>
+      </c>
+      <c r="R34" t="n">
         <v>221.0151182874286</v>
-      </c>
-      <c r="R34" t="n">
-        <v>164.4066131828346</v>
       </c>
       <c r="S34" t="n">
         <v>218.8751278244474</v>
@@ -29973,7 +29973,7 @@
         <v>221.0151182874286</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.7486738677682</v>
+        <v>221.0151182874286</v>
       </c>
     </row>
     <row r="35">
@@ -30007,7 +30007,7 @@
         <v>243.1347164919704</v>
       </c>
       <c r="J35" t="n">
-        <v>138.7119396886106</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="K35" t="n">
         <v>243.1347164919704</v>
@@ -30016,19 +30016,19 @@
         <v>243.1347164919704</v>
       </c>
       <c r="M35" t="n">
-        <v>142.6110537727578</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="N35" t="n">
         <v>243.1347164919704</v>
       </c>
       <c r="O35" t="n">
-        <v>243.1347164919704</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>243.1347164919704</v>
       </c>
       <c r="Q35" t="n">
-        <v>243.1347164919704</v>
+        <v>184.8984990056983</v>
       </c>
       <c r="R35" t="n">
         <v>243.1347164919704</v>
@@ -30089,22 +30089,22 @@
         <v>101.1486090703221</v>
       </c>
       <c r="K36" t="n">
-        <v>95.90842290065683</v>
+        <v>95.90842290065684</v>
       </c>
       <c r="L36" t="n">
-        <v>83.3400259534659</v>
+        <v>83.34002595346591</v>
       </c>
       <c r="M36" t="n">
-        <v>78.19029710175245</v>
+        <v>78.19029710175246</v>
       </c>
       <c r="N36" t="n">
         <v>66.06942948955182</v>
       </c>
       <c r="O36" t="n">
-        <v>82.32375190725108</v>
+        <v>82.32375190725111</v>
       </c>
       <c r="P36" t="n">
-        <v>85.11220969290976</v>
+        <v>85.11220969290977</v>
       </c>
       <c r="Q36" t="n">
         <v>106.0581031398714</v>
@@ -30113,7 +30113,7 @@
         <v>127.2394152081627</v>
       </c>
       <c r="S36" t="n">
-        <v>171.528325811809</v>
+        <v>164.5345187941275</v>
       </c>
       <c r="T36" t="n">
         <v>197.4218470422748</v>
@@ -30122,7 +30122,7 @@
         <v>224.641496683099</v>
       </c>
       <c r="V36" t="n">
-        <v>231.9087310396551</v>
+        <v>238.9025380573366</v>
       </c>
       <c r="W36" t="n">
         <v>243.1347164919704</v>
@@ -30147,13 +30147,13 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D37" t="n">
-        <v>149.6384314948771</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E37" t="n">
-        <v>146.9746241731992</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="F37" t="n">
-        <v>243.1347164919704</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G37" t="n">
         <v>167.689771139254</v>
@@ -30165,7 +30165,7 @@
         <v>147.7494808688102</v>
       </c>
       <c r="J37" t="n">
-        <v>74.7117271143959</v>
+        <v>109.6934180900282</v>
       </c>
       <c r="K37" t="n">
         <v>102.5727324697714</v>
@@ -30177,16 +30177,16 @@
         <v>104.1302923698531</v>
       </c>
       <c r="N37" t="n">
-        <v>93.91583427681479</v>
+        <v>95.36430202056708</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>106.751788516009</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>110.1177504068043</v>
       </c>
       <c r="Q37" t="n">
-        <v>63.02868467987656</v>
+        <v>130.9853613927381</v>
       </c>
       <c r="R37" t="n">
         <v>164.4066131828346</v>
@@ -30250,7 +30250,7 @@
         <v>243.1347164919704</v>
       </c>
       <c r="L38" t="n">
-        <v>243.1347164919704</v>
+        <v>165.936488035872</v>
       </c>
       <c r="M38" t="n">
         <v>243.1347164919704</v>
@@ -30259,13 +30259,13 @@
         <v>243.1347164919704</v>
       </c>
       <c r="O38" t="n">
-        <v>243.1347164919704</v>
+        <v>149.2908438169256</v>
       </c>
       <c r="P38" t="n">
         <v>243.1347164919704</v>
       </c>
       <c r="Q38" t="n">
-        <v>80.23385596412862</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="R38" t="n">
         <v>243.1347164919704</v>
@@ -30317,7 +30317,7 @@
         <v>135.7848683666891</v>
       </c>
       <c r="H39" t="n">
-        <v>115.1544421536135</v>
+        <v>108.160635135932</v>
       </c>
       <c r="I39" t="n">
         <v>88.82825281985647</v>
@@ -30326,25 +30326,25 @@
         <v>101.1486090703221</v>
       </c>
       <c r="K39" t="n">
-        <v>95.90842290065683</v>
+        <v>95.90842290065684</v>
       </c>
       <c r="L39" t="n">
-        <v>83.3400259534659</v>
+        <v>83.34002595346591</v>
       </c>
       <c r="M39" t="n">
-        <v>78.19029710175245</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>66.06942948955182</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>82.32375190725111</v>
       </c>
       <c r="P39" t="n">
-        <v>85.11220969290976</v>
+        <v>85.11220969290977</v>
       </c>
       <c r="Q39" t="n">
-        <v>106.0581031398714</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>127.2394152081627</v>
@@ -30353,7 +30353,7 @@
         <v>164.5345187941275</v>
       </c>
       <c r="T39" t="n">
-        <v>197.4218470422748</v>
+        <v>204.4156540599563</v>
       </c>
       <c r="U39" t="n">
         <v>224.641496683099</v>
@@ -30402,19 +30402,19 @@
         <v>147.7494808688102</v>
       </c>
       <c r="J40" t="n">
-        <v>74.7117271143959</v>
+        <v>109.6934180900282</v>
       </c>
       <c r="K40" t="n">
-        <v>102.5727324697714</v>
+        <v>175.7952499080927</v>
       </c>
       <c r="L40" t="n">
-        <v>199.4136635128443</v>
+        <v>101.8051034503207</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>104.1302923698531</v>
       </c>
       <c r="N40" t="n">
-        <v>93.91583427681479</v>
+        <v>93.91583427681481</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -30423,7 +30423,7 @@
         <v>110.1177504068043</v>
       </c>
       <c r="Q40" t="n">
-        <v>63.02868467987656</v>
+        <v>130.9853613927381</v>
       </c>
       <c r="R40" t="n">
         <v>164.4066131828346</v>
@@ -30447,7 +30447,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.7486738677682</v>
+        <v>243.1347164919704</v>
       </c>
     </row>
     <row r="41">
@@ -30481,7 +30481,7 @@
         <v>243.1347164919704</v>
       </c>
       <c r="J41" t="n">
-        <v>138.7119396886106</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="K41" t="n">
         <v>243.1347164919704</v>
@@ -30493,7 +30493,7 @@
         <v>243.1347164919704</v>
       </c>
       <c r="N41" t="n">
-        <v>243.1347164919704</v>
+        <v>54.36834486793353</v>
       </c>
       <c r="O41" t="n">
         <v>243.1347164919704</v>
@@ -30502,7 +30502,7 @@
         <v>243.1347164919704</v>
       </c>
       <c r="Q41" t="n">
-        <v>139.9944862827464</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="R41" t="n">
         <v>243.1347164919704</v>
@@ -30563,22 +30563,22 @@
         <v>101.1486090703221</v>
       </c>
       <c r="K42" t="n">
-        <v>95.90842290065683</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>83.3400259534659</v>
+        <v>83.34002595346591</v>
       </c>
       <c r="M42" t="n">
-        <v>78.19029710175245</v>
+        <v>78.19029710175246</v>
       </c>
       <c r="N42" t="n">
         <v>66.06942948955182</v>
       </c>
       <c r="O42" t="n">
-        <v>82.32375190725108</v>
+        <v>82.32375190725111</v>
       </c>
       <c r="P42" t="n">
-        <v>85.11220969290976</v>
+        <v>85.11220969290977</v>
       </c>
       <c r="Q42" t="n">
         <v>106.0581031398714</v>
@@ -30590,10 +30590,10 @@
         <v>164.5345187941275</v>
       </c>
       <c r="T42" t="n">
-        <v>197.4218470422748</v>
+        <v>204.4156540599563</v>
       </c>
       <c r="U42" t="n">
-        <v>231.6353037007806</v>
+        <v>224.641496683099</v>
       </c>
       <c r="V42" t="n">
         <v>231.9087310396551</v>
@@ -30618,13 +30618,13 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C43" t="n">
-        <v>167.3365529312023</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="D43" t="n">
         <v>149.0055665145194</v>
       </c>
       <c r="E43" t="n">
-        <v>146.9746241731992</v>
+        <v>168.7850206749546</v>
       </c>
       <c r="F43" t="n">
         <v>146.1590214098045</v>
@@ -30642,22 +30642,22 @@
         <v>109.6934180900282</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>102.5727324697714</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>101.8051034503207</v>
       </c>
       <c r="M43" t="n">
         <v>104.1302923698531</v>
       </c>
       <c r="N43" t="n">
-        <v>93.91583427681479</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>106.751788516009</v>
       </c>
       <c r="P43" t="n">
-        <v>166.3459112854646</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>130.9853613927381</v>
@@ -30681,10 +30681,10 @@
         <v>243.1347164919704</v>
       </c>
       <c r="X43" t="n">
-        <v>243.1347164919704</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y43" t="n">
-        <v>243.1347164919704</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="44">
@@ -30721,7 +30721,7 @@
         <v>243.1347164919704</v>
       </c>
       <c r="K44" t="n">
-        <v>243.1347164919704</v>
+        <v>226.5476019845221</v>
       </c>
       <c r="L44" t="n">
         <v>243.1347164919704</v>
@@ -30730,10 +30730,10 @@
         <v>243.1347164919704</v>
       </c>
       <c r="N44" t="n">
-        <v>166.1942484291071</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="O44" t="n">
-        <v>243.1347164919704</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>243.1347164919704</v>
@@ -30742,7 +30742,7 @@
         <v>243.1347164919704</v>
       </c>
       <c r="R44" t="n">
-        <v>113.8687281338977</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="S44" t="n">
         <v>243.1347164919704</v>
@@ -30785,7 +30785,7 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F45" t="n">
-        <v>143.5062320835493</v>
+        <v>150.5000391012308</v>
       </c>
       <c r="G45" t="n">
         <v>135.7848683666891</v>
@@ -30794,28 +30794,28 @@
         <v>108.160635135932</v>
       </c>
       <c r="I45" t="n">
-        <v>95.82205983753799</v>
+        <v>88.82825281985647</v>
       </c>
       <c r="J45" t="n">
         <v>101.1486090703221</v>
       </c>
       <c r="K45" t="n">
-        <v>95.90842290065683</v>
+        <v>95.90842290065684</v>
       </c>
       <c r="L45" t="n">
-        <v>83.3400259534659</v>
+        <v>83.34002595346591</v>
       </c>
       <c r="M45" t="n">
-        <v>78.19029710175245</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>66.06942948955182</v>
       </c>
       <c r="O45" t="n">
-        <v>82.32375190725108</v>
+        <v>82.32375190725111</v>
       </c>
       <c r="P45" t="n">
-        <v>85.11220969290976</v>
+        <v>85.11220969290977</v>
       </c>
       <c r="Q45" t="n">
         <v>106.0581031398714</v>
@@ -30876,28 +30876,28 @@
         <v>147.7494808688102</v>
       </c>
       <c r="J46" t="n">
-        <v>74.7117271143959</v>
+        <v>109.6934180900282</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>102.5727324697714</v>
       </c>
       <c r="L46" t="n">
         <v>101.8051034503207</v>
       </c>
       <c r="M46" t="n">
-        <v>201.7388524323767</v>
+        <v>104.1302923698531</v>
       </c>
       <c r="N46" t="n">
-        <v>93.91583427681479</v>
+        <v>93.91583427681481</v>
       </c>
       <c r="O46" t="n">
-        <v>106.751788516009</v>
+        <v>204.3603485785325</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>110.1177504068043</v>
       </c>
       <c r="Q46" t="n">
-        <v>63.02868467987656</v>
+        <v>130.9853613927381</v>
       </c>
       <c r="R46" t="n">
         <v>164.4066131828346</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4454594880620746</v>
+        <v>0.4454594880620745</v>
       </c>
       <c r="H11" t="n">
-        <v>4.562061982115723</v>
+        <v>4.562061982115722</v>
       </c>
       <c r="I11" t="n">
-        <v>17.17357691351315</v>
+        <v>17.17357691351314</v>
       </c>
       <c r="J11" t="n">
-        <v>37.80781722490854</v>
+        <v>37.80781722490853</v>
       </c>
       <c r="K11" t="n">
-        <v>56.66411735457617</v>
+        <v>56.66411735457616</v>
       </c>
       <c r="L11" t="n">
-        <v>70.2968481623559</v>
+        <v>70.29684816235589</v>
       </c>
       <c r="M11" t="n">
-        <v>78.21878833317982</v>
+        <v>78.2187883331798</v>
       </c>
       <c r="N11" t="n">
-        <v>79.48445010363619</v>
+        <v>79.48445010363618</v>
       </c>
       <c r="O11" t="n">
-        <v>75.05491231921893</v>
+        <v>75.05491231921891</v>
       </c>
       <c r="P11" t="n">
-        <v>64.05763120768646</v>
+        <v>64.05763120768644</v>
       </c>
       <c r="Q11" t="n">
-        <v>48.10461329146339</v>
+        <v>48.10461329146338</v>
       </c>
       <c r="R11" t="n">
-        <v>27.98209456697932</v>
+        <v>27.98209456697931</v>
       </c>
       <c r="S11" t="n">
-        <v>10.15090808421454</v>
+        <v>10.15090808421453</v>
       </c>
       <c r="T11" t="n">
-        <v>1.949998908991733</v>
+        <v>1.949998908991732</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03563675904496596</v>
+        <v>0.03563675904496595</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,40 +31835,40 @@
         <v>2.301880386200768</v>
       </c>
       <c r="I12" t="n">
-        <v>8.206067680143519</v>
+        <v>8.206067680143518</v>
       </c>
       <c r="J12" t="n">
-        <v>22.51807692967791</v>
+        <v>22.5180769296779</v>
       </c>
       <c r="K12" t="n">
-        <v>38.48698009934318</v>
+        <v>38.48698009934317</v>
       </c>
       <c r="L12" t="n">
-        <v>51.75049433191145</v>
+        <v>51.75049433191144</v>
       </c>
       <c r="M12" t="n">
-        <v>60.39038597221541</v>
+        <v>60.3903859722154</v>
       </c>
       <c r="N12" t="n">
-        <v>61.98873979169816</v>
+        <v>61.98873979169814</v>
       </c>
       <c r="O12" t="n">
-        <v>56.70758642608222</v>
+        <v>56.70758642608221</v>
       </c>
       <c r="P12" t="n">
-        <v>45.51283753606224</v>
+        <v>45.51283753606222</v>
       </c>
       <c r="Q12" t="n">
-        <v>30.42412659399962</v>
+        <v>30.42412659399961</v>
       </c>
       <c r="R12" t="n">
-        <v>14.79810115670213</v>
+        <v>14.79810115670212</v>
       </c>
       <c r="S12" t="n">
-        <v>4.427095111516914</v>
+        <v>4.427095111516913</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9606848659938715</v>
+        <v>0.9606848659938713</v>
       </c>
       <c r="U12" t="n">
         <v>0.01568038410218507</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1998177908540742</v>
+        <v>0.1998177908540741</v>
       </c>
       <c r="H13" t="n">
-        <v>1.776561813229861</v>
+        <v>1.77656181322986</v>
       </c>
       <c r="I13" t="n">
-        <v>6.009065928593432</v>
+        <v>6.009065928593431</v>
       </c>
       <c r="J13" t="n">
         <v>14.12711781338304</v>
@@ -31923,16 +31923,16 @@
         <v>23.21519424650061</v>
       </c>
       <c r="L13" t="n">
-        <v>29.70745592388663</v>
+        <v>29.70745592388662</v>
       </c>
       <c r="M13" t="n">
         <v>31.32234697906182</v>
       </c>
       <c r="N13" t="n">
-        <v>30.57757157678757</v>
+        <v>30.57757157678756</v>
       </c>
       <c r="O13" t="n">
-        <v>28.2433364745377</v>
+        <v>28.24333647453769</v>
       </c>
       <c r="P13" t="n">
         <v>24.16705354111456</v>
@@ -31941,16 +31941,16 @@
         <v>16.73201519597161</v>
       </c>
       <c r="R13" t="n">
-        <v>8.984534486947732</v>
+        <v>8.98453448694773</v>
       </c>
       <c r="S13" t="n">
         <v>3.482279136975091</v>
       </c>
       <c r="T13" t="n">
-        <v>0.8537669245583167</v>
+        <v>0.8537669245583165</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01089915222840406</v>
+        <v>0.01089915222840405</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4454594880620746</v>
+        <v>0.4454594880620745</v>
       </c>
       <c r="H14" t="n">
-        <v>4.562061982115723</v>
+        <v>4.562061982115722</v>
       </c>
       <c r="I14" t="n">
-        <v>17.17357691351315</v>
+        <v>17.17357691351314</v>
       </c>
       <c r="J14" t="n">
-        <v>37.80781722490854</v>
+        <v>37.80781722490853</v>
       </c>
       <c r="K14" t="n">
-        <v>56.66411735457617</v>
+        <v>56.66411735457616</v>
       </c>
       <c r="L14" t="n">
-        <v>70.2968481623559</v>
+        <v>70.29684816235589</v>
       </c>
       <c r="M14" t="n">
-        <v>78.21878833317982</v>
+        <v>78.2187883331798</v>
       </c>
       <c r="N14" t="n">
-        <v>79.48445010363619</v>
+        <v>79.48445010363618</v>
       </c>
       <c r="O14" t="n">
-        <v>75.05491231921893</v>
+        <v>75.05491231921891</v>
       </c>
       <c r="P14" t="n">
-        <v>64.05763120768646</v>
+        <v>64.05763120768644</v>
       </c>
       <c r="Q14" t="n">
-        <v>48.10461329146339</v>
+        <v>48.10461329146338</v>
       </c>
       <c r="R14" t="n">
-        <v>27.98209456697932</v>
+        <v>27.98209456697931</v>
       </c>
       <c r="S14" t="n">
-        <v>10.15090808421454</v>
+        <v>10.15090808421453</v>
       </c>
       <c r="T14" t="n">
-        <v>1.949998908991733</v>
+        <v>1.949998908991732</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03563675904496596</v>
+        <v>0.03563675904496595</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,40 +32072,40 @@
         <v>2.301880386200768</v>
       </c>
       <c r="I15" t="n">
-        <v>8.206067680143519</v>
+        <v>8.206067680143518</v>
       </c>
       <c r="J15" t="n">
-        <v>22.51807692967791</v>
+        <v>22.5180769296779</v>
       </c>
       <c r="K15" t="n">
-        <v>38.48698009934318</v>
+        <v>38.48698009934317</v>
       </c>
       <c r="L15" t="n">
-        <v>51.75049433191145</v>
+        <v>51.75049433191144</v>
       </c>
       <c r="M15" t="n">
-        <v>60.39038597221541</v>
+        <v>60.3903859722154</v>
       </c>
       <c r="N15" t="n">
-        <v>61.98873979169816</v>
+        <v>61.98873979169814</v>
       </c>
       <c r="O15" t="n">
-        <v>56.70758642608222</v>
+        <v>56.70758642608221</v>
       </c>
       <c r="P15" t="n">
-        <v>45.51283753606224</v>
+        <v>45.51283753606222</v>
       </c>
       <c r="Q15" t="n">
-        <v>30.42412659399962</v>
+        <v>30.42412659399961</v>
       </c>
       <c r="R15" t="n">
-        <v>14.79810115670213</v>
+        <v>14.79810115670212</v>
       </c>
       <c r="S15" t="n">
-        <v>4.427095111516914</v>
+        <v>4.427095111516913</v>
       </c>
       <c r="T15" t="n">
-        <v>0.9606848659938715</v>
+        <v>0.9606848659938713</v>
       </c>
       <c r="U15" t="n">
         <v>0.01568038410218507</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1998177908540742</v>
+        <v>0.1998177908540741</v>
       </c>
       <c r="H16" t="n">
-        <v>1.776561813229861</v>
+        <v>1.77656181322986</v>
       </c>
       <c r="I16" t="n">
-        <v>6.009065928593432</v>
+        <v>6.009065928593431</v>
       </c>
       <c r="J16" t="n">
         <v>14.12711781338304</v>
@@ -32160,16 +32160,16 @@
         <v>23.21519424650061</v>
       </c>
       <c r="L16" t="n">
-        <v>29.70745592388663</v>
+        <v>29.70745592388662</v>
       </c>
       <c r="M16" t="n">
         <v>31.32234697906182</v>
       </c>
       <c r="N16" t="n">
-        <v>30.57757157678757</v>
+        <v>30.57757157678756</v>
       </c>
       <c r="O16" t="n">
-        <v>28.2433364745377</v>
+        <v>28.24333647453769</v>
       </c>
       <c r="P16" t="n">
         <v>24.16705354111456</v>
@@ -32178,16 +32178,16 @@
         <v>16.73201519597161</v>
       </c>
       <c r="R16" t="n">
-        <v>8.984534486947732</v>
+        <v>8.98453448694773</v>
       </c>
       <c r="S16" t="n">
         <v>3.482279136975091</v>
       </c>
       <c r="T16" t="n">
-        <v>0.8537669245583167</v>
+        <v>0.8537669245583165</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01089915222840406</v>
+        <v>0.01089915222840405</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4454594880620746</v>
+        <v>0.4454594880620745</v>
       </c>
       <c r="H17" t="n">
-        <v>4.562061982115723</v>
+        <v>4.562061982115722</v>
       </c>
       <c r="I17" t="n">
-        <v>17.17357691351315</v>
+        <v>17.17357691351314</v>
       </c>
       <c r="J17" t="n">
-        <v>37.80781722490854</v>
+        <v>37.80781722490853</v>
       </c>
       <c r="K17" t="n">
-        <v>56.66411735457617</v>
+        <v>56.66411735457616</v>
       </c>
       <c r="L17" t="n">
-        <v>70.2968481623559</v>
+        <v>70.29684816235589</v>
       </c>
       <c r="M17" t="n">
-        <v>78.21878833317982</v>
+        <v>78.2187883331798</v>
       </c>
       <c r="N17" t="n">
-        <v>79.48445010363619</v>
+        <v>79.48445010363618</v>
       </c>
       <c r="O17" t="n">
-        <v>75.05491231921893</v>
+        <v>75.05491231921891</v>
       </c>
       <c r="P17" t="n">
-        <v>64.05763120768646</v>
+        <v>64.05763120768644</v>
       </c>
       <c r="Q17" t="n">
-        <v>48.10461329146339</v>
+        <v>48.10461329146338</v>
       </c>
       <c r="R17" t="n">
-        <v>27.98209456697932</v>
+        <v>27.98209456697931</v>
       </c>
       <c r="S17" t="n">
-        <v>10.15090808421454</v>
+        <v>10.15090808421453</v>
       </c>
       <c r="T17" t="n">
-        <v>1.949998908991733</v>
+        <v>1.949998908991732</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03563675904496596</v>
+        <v>0.03563675904496595</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,40 +32309,40 @@
         <v>2.301880386200768</v>
       </c>
       <c r="I18" t="n">
-        <v>8.206067680143519</v>
+        <v>8.206067680143518</v>
       </c>
       <c r="J18" t="n">
-        <v>22.51807692967791</v>
+        <v>22.5180769296779</v>
       </c>
       <c r="K18" t="n">
-        <v>38.48698009934318</v>
+        <v>38.48698009934317</v>
       </c>
       <c r="L18" t="n">
-        <v>51.75049433191145</v>
+        <v>51.75049433191144</v>
       </c>
       <c r="M18" t="n">
-        <v>60.39038597221541</v>
+        <v>60.3903859722154</v>
       </c>
       <c r="N18" t="n">
-        <v>61.98873979169816</v>
+        <v>61.98873979169814</v>
       </c>
       <c r="O18" t="n">
-        <v>56.70758642608222</v>
+        <v>56.70758642608221</v>
       </c>
       <c r="P18" t="n">
-        <v>45.51283753606224</v>
+        <v>45.51283753606222</v>
       </c>
       <c r="Q18" t="n">
-        <v>30.42412659399962</v>
+        <v>30.42412659399961</v>
       </c>
       <c r="R18" t="n">
-        <v>14.79810115670213</v>
+        <v>14.79810115670212</v>
       </c>
       <c r="S18" t="n">
-        <v>4.427095111516914</v>
+        <v>4.427095111516913</v>
       </c>
       <c r="T18" t="n">
-        <v>0.9606848659938715</v>
+        <v>0.9606848659938713</v>
       </c>
       <c r="U18" t="n">
         <v>0.01568038410218507</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1998177908540742</v>
+        <v>0.1998177908540741</v>
       </c>
       <c r="H19" t="n">
-        <v>1.776561813229861</v>
+        <v>1.77656181322986</v>
       </c>
       <c r="I19" t="n">
-        <v>6.009065928593432</v>
+        <v>6.009065928593431</v>
       </c>
       <c r="J19" t="n">
         <v>14.12711781338304</v>
@@ -32397,16 +32397,16 @@
         <v>23.21519424650061</v>
       </c>
       <c r="L19" t="n">
-        <v>29.70745592388663</v>
+        <v>29.70745592388662</v>
       </c>
       <c r="M19" t="n">
         <v>31.32234697906182</v>
       </c>
       <c r="N19" t="n">
-        <v>30.57757157678757</v>
+        <v>30.57757157678756</v>
       </c>
       <c r="O19" t="n">
-        <v>28.2433364745377</v>
+        <v>28.24333647453769</v>
       </c>
       <c r="P19" t="n">
         <v>24.16705354111456</v>
@@ -32415,16 +32415,16 @@
         <v>16.73201519597161</v>
       </c>
       <c r="R19" t="n">
-        <v>8.984534486947732</v>
+        <v>8.98453448694773</v>
       </c>
       <c r="S19" t="n">
         <v>3.482279136975091</v>
       </c>
       <c r="T19" t="n">
-        <v>0.8537669245583167</v>
+        <v>0.8537669245583165</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01089915222840406</v>
+        <v>0.01089915222840405</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4454594880620746</v>
+        <v>0.4454594880620745</v>
       </c>
       <c r="H20" t="n">
-        <v>4.562061982115723</v>
+        <v>4.562061982115722</v>
       </c>
       <c r="I20" t="n">
-        <v>17.17357691351315</v>
+        <v>17.17357691351314</v>
       </c>
       <c r="J20" t="n">
-        <v>37.80781722490854</v>
+        <v>37.80781722490853</v>
       </c>
       <c r="K20" t="n">
-        <v>56.66411735457617</v>
+        <v>56.66411735457616</v>
       </c>
       <c r="L20" t="n">
-        <v>70.2968481623559</v>
+        <v>70.29684816235589</v>
       </c>
       <c r="M20" t="n">
-        <v>78.21878833317982</v>
+        <v>78.2187883331798</v>
       </c>
       <c r="N20" t="n">
-        <v>79.48445010363619</v>
+        <v>79.48445010363618</v>
       </c>
       <c r="O20" t="n">
-        <v>75.05491231921893</v>
+        <v>75.05491231921891</v>
       </c>
       <c r="P20" t="n">
-        <v>64.05763120768646</v>
+        <v>64.05763120768644</v>
       </c>
       <c r="Q20" t="n">
-        <v>48.10461329146339</v>
+        <v>48.10461329146338</v>
       </c>
       <c r="R20" t="n">
-        <v>27.98209456697932</v>
+        <v>27.98209456697931</v>
       </c>
       <c r="S20" t="n">
-        <v>10.15090808421454</v>
+        <v>10.15090808421453</v>
       </c>
       <c r="T20" t="n">
-        <v>1.949998908991733</v>
+        <v>1.949998908991732</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03563675904496596</v>
+        <v>0.03563675904496595</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,40 +32546,40 @@
         <v>2.301880386200768</v>
       </c>
       <c r="I21" t="n">
-        <v>8.206067680143519</v>
+        <v>8.206067680143518</v>
       </c>
       <c r="J21" t="n">
-        <v>22.51807692967791</v>
+        <v>22.5180769296779</v>
       </c>
       <c r="K21" t="n">
-        <v>38.48698009934318</v>
+        <v>38.48698009934317</v>
       </c>
       <c r="L21" t="n">
-        <v>51.75049433191145</v>
+        <v>51.75049433191144</v>
       </c>
       <c r="M21" t="n">
-        <v>60.39038597221541</v>
+        <v>60.3903859722154</v>
       </c>
       <c r="N21" t="n">
-        <v>61.98873979169816</v>
+        <v>61.98873979169814</v>
       </c>
       <c r="O21" t="n">
-        <v>56.70758642608222</v>
+        <v>56.70758642608221</v>
       </c>
       <c r="P21" t="n">
-        <v>45.51283753606224</v>
+        <v>45.51283753606222</v>
       </c>
       <c r="Q21" t="n">
-        <v>30.42412659399962</v>
+        <v>30.42412659399961</v>
       </c>
       <c r="R21" t="n">
-        <v>14.79810115670213</v>
+        <v>14.79810115670212</v>
       </c>
       <c r="S21" t="n">
-        <v>4.427095111516914</v>
+        <v>4.427095111516913</v>
       </c>
       <c r="T21" t="n">
-        <v>0.9606848659938715</v>
+        <v>0.9606848659938713</v>
       </c>
       <c r="U21" t="n">
         <v>0.01568038410218507</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1998177908540742</v>
+        <v>0.1998177908540741</v>
       </c>
       <c r="H22" t="n">
-        <v>1.776561813229861</v>
+        <v>1.77656181322986</v>
       </c>
       <c r="I22" t="n">
-        <v>6.009065928593432</v>
+        <v>6.009065928593431</v>
       </c>
       <c r="J22" t="n">
         <v>14.12711781338304</v>
@@ -32634,16 +32634,16 @@
         <v>23.21519424650061</v>
       </c>
       <c r="L22" t="n">
-        <v>29.70745592388663</v>
+        <v>29.70745592388662</v>
       </c>
       <c r="M22" t="n">
         <v>31.32234697906182</v>
       </c>
       <c r="N22" t="n">
-        <v>30.57757157678757</v>
+        <v>30.57757157678756</v>
       </c>
       <c r="O22" t="n">
-        <v>28.2433364745377</v>
+        <v>28.24333647453769</v>
       </c>
       <c r="P22" t="n">
         <v>24.16705354111456</v>
@@ -32652,16 +32652,16 @@
         <v>16.73201519597161</v>
       </c>
       <c r="R22" t="n">
-        <v>8.984534486947732</v>
+        <v>8.98453448694773</v>
       </c>
       <c r="S22" t="n">
         <v>3.482279136975091</v>
       </c>
       <c r="T22" t="n">
-        <v>0.8537669245583167</v>
+        <v>0.8537669245583165</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01089915222840406</v>
+        <v>0.01089915222840405</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4454594880620746</v>
+        <v>0.4454594880620745</v>
       </c>
       <c r="H23" t="n">
-        <v>4.562061982115723</v>
+        <v>4.562061982115722</v>
       </c>
       <c r="I23" t="n">
-        <v>17.17357691351315</v>
+        <v>17.17357691351314</v>
       </c>
       <c r="J23" t="n">
-        <v>37.80781722490854</v>
+        <v>37.80781722490853</v>
       </c>
       <c r="K23" t="n">
-        <v>56.66411735457617</v>
+        <v>56.66411735457616</v>
       </c>
       <c r="L23" t="n">
-        <v>70.2968481623559</v>
+        <v>70.29684816235589</v>
       </c>
       <c r="M23" t="n">
-        <v>78.21878833317982</v>
+        <v>78.2187883331798</v>
       </c>
       <c r="N23" t="n">
-        <v>79.48445010363619</v>
+        <v>79.48445010363618</v>
       </c>
       <c r="O23" t="n">
-        <v>75.05491231921893</v>
+        <v>75.05491231921891</v>
       </c>
       <c r="P23" t="n">
-        <v>64.05763120768646</v>
+        <v>64.05763120768644</v>
       </c>
       <c r="Q23" t="n">
-        <v>48.10461329146339</v>
+        <v>48.10461329146338</v>
       </c>
       <c r="R23" t="n">
-        <v>27.98209456697932</v>
+        <v>27.98209456697931</v>
       </c>
       <c r="S23" t="n">
-        <v>10.15090808421454</v>
+        <v>10.15090808421453</v>
       </c>
       <c r="T23" t="n">
-        <v>1.949998908991733</v>
+        <v>1.949998908991732</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03563675904496596</v>
+        <v>0.03563675904496595</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,40 +32783,40 @@
         <v>2.301880386200768</v>
       </c>
       <c r="I24" t="n">
-        <v>8.206067680143519</v>
+        <v>8.206067680143518</v>
       </c>
       <c r="J24" t="n">
-        <v>22.51807692967791</v>
+        <v>22.5180769296779</v>
       </c>
       <c r="K24" t="n">
-        <v>38.48698009934318</v>
+        <v>38.48698009934317</v>
       </c>
       <c r="L24" t="n">
-        <v>51.75049433191145</v>
+        <v>51.75049433191144</v>
       </c>
       <c r="M24" t="n">
-        <v>60.39038597221541</v>
+        <v>60.3903859722154</v>
       </c>
       <c r="N24" t="n">
-        <v>61.98873979169816</v>
+        <v>61.98873979169814</v>
       </c>
       <c r="O24" t="n">
-        <v>56.70758642608222</v>
+        <v>56.70758642608221</v>
       </c>
       <c r="P24" t="n">
-        <v>45.51283753606224</v>
+        <v>45.51283753606222</v>
       </c>
       <c r="Q24" t="n">
-        <v>30.42412659399962</v>
+        <v>30.42412659399961</v>
       </c>
       <c r="R24" t="n">
-        <v>14.79810115670213</v>
+        <v>14.79810115670212</v>
       </c>
       <c r="S24" t="n">
-        <v>4.427095111516914</v>
+        <v>4.427095111516913</v>
       </c>
       <c r="T24" t="n">
-        <v>0.9606848659938715</v>
+        <v>0.9606848659938713</v>
       </c>
       <c r="U24" t="n">
         <v>0.01568038410218507</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1998177908540742</v>
+        <v>0.1998177908540741</v>
       </c>
       <c r="H25" t="n">
-        <v>1.776561813229861</v>
+        <v>1.77656181322986</v>
       </c>
       <c r="I25" t="n">
-        <v>6.009065928593432</v>
+        <v>6.009065928593431</v>
       </c>
       <c r="J25" t="n">
         <v>14.12711781338304</v>
@@ -32871,16 +32871,16 @@
         <v>23.21519424650061</v>
       </c>
       <c r="L25" t="n">
-        <v>29.70745592388663</v>
+        <v>29.70745592388662</v>
       </c>
       <c r="M25" t="n">
         <v>31.32234697906182</v>
       </c>
       <c r="N25" t="n">
-        <v>30.57757157678757</v>
+        <v>30.57757157678756</v>
       </c>
       <c r="O25" t="n">
-        <v>28.2433364745377</v>
+        <v>28.24333647453769</v>
       </c>
       <c r="P25" t="n">
         <v>24.16705354111456</v>
@@ -32889,16 +32889,16 @@
         <v>16.73201519597161</v>
       </c>
       <c r="R25" t="n">
-        <v>8.984534486947732</v>
+        <v>8.98453448694773</v>
       </c>
       <c r="S25" t="n">
         <v>3.482279136975091</v>
       </c>
       <c r="T25" t="n">
-        <v>0.8537669245583167</v>
+        <v>0.8537669245583165</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01089915222840406</v>
+        <v>0.01089915222840405</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4454594880620746</v>
+        <v>0.4454594880620745</v>
       </c>
       <c r="H26" t="n">
-        <v>4.562061982115723</v>
+        <v>4.562061982115722</v>
       </c>
       <c r="I26" t="n">
-        <v>17.17357691351315</v>
+        <v>17.17357691351314</v>
       </c>
       <c r="J26" t="n">
-        <v>37.80781722490854</v>
+        <v>37.80781722490853</v>
       </c>
       <c r="K26" t="n">
-        <v>56.66411735457617</v>
+        <v>56.66411735457616</v>
       </c>
       <c r="L26" t="n">
-        <v>70.2968481623559</v>
+        <v>70.29684816235589</v>
       </c>
       <c r="M26" t="n">
-        <v>78.21878833317982</v>
+        <v>78.2187883331798</v>
       </c>
       <c r="N26" t="n">
-        <v>79.48445010363619</v>
+        <v>79.48445010363618</v>
       </c>
       <c r="O26" t="n">
-        <v>75.05491231921893</v>
+        <v>75.05491231921891</v>
       </c>
       <c r="P26" t="n">
-        <v>64.05763120768646</v>
+        <v>64.05763120768644</v>
       </c>
       <c r="Q26" t="n">
-        <v>48.10461329146339</v>
+        <v>48.10461329146338</v>
       </c>
       <c r="R26" t="n">
-        <v>27.98209456697932</v>
+        <v>27.98209456697931</v>
       </c>
       <c r="S26" t="n">
-        <v>10.15090808421454</v>
+        <v>10.15090808421453</v>
       </c>
       <c r="T26" t="n">
-        <v>1.949998908991733</v>
+        <v>1.949998908991732</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03563675904496596</v>
+        <v>0.03563675904496595</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,40 +33020,40 @@
         <v>2.301880386200768</v>
       </c>
       <c r="I27" t="n">
-        <v>8.206067680143519</v>
+        <v>8.206067680143518</v>
       </c>
       <c r="J27" t="n">
-        <v>22.51807692967791</v>
+        <v>22.5180769296779</v>
       </c>
       <c r="K27" t="n">
-        <v>38.48698009934318</v>
+        <v>38.48698009934317</v>
       </c>
       <c r="L27" t="n">
-        <v>51.75049433191145</v>
+        <v>51.75049433191144</v>
       </c>
       <c r="M27" t="n">
-        <v>60.39038597221541</v>
+        <v>60.3903859722154</v>
       </c>
       <c r="N27" t="n">
-        <v>61.98873979169816</v>
+        <v>61.98873979169814</v>
       </c>
       <c r="O27" t="n">
-        <v>56.70758642608222</v>
+        <v>56.70758642608221</v>
       </c>
       <c r="P27" t="n">
-        <v>45.51283753606224</v>
+        <v>45.51283753606222</v>
       </c>
       <c r="Q27" t="n">
-        <v>30.42412659399962</v>
+        <v>30.42412659399961</v>
       </c>
       <c r="R27" t="n">
-        <v>14.79810115670213</v>
+        <v>14.79810115670212</v>
       </c>
       <c r="S27" t="n">
-        <v>4.427095111516914</v>
+        <v>4.427095111516913</v>
       </c>
       <c r="T27" t="n">
-        <v>0.9606848659938715</v>
+        <v>0.9606848659938713</v>
       </c>
       <c r="U27" t="n">
         <v>0.01568038410218507</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1998177908540742</v>
+        <v>0.1998177908540741</v>
       </c>
       <c r="H28" t="n">
-        <v>1.776561813229861</v>
+        <v>1.77656181322986</v>
       </c>
       <c r="I28" t="n">
-        <v>6.009065928593432</v>
+        <v>6.009065928593431</v>
       </c>
       <c r="J28" t="n">
         <v>14.12711781338304</v>
@@ -33108,16 +33108,16 @@
         <v>23.21519424650061</v>
       </c>
       <c r="L28" t="n">
-        <v>29.70745592388663</v>
+        <v>29.70745592388662</v>
       </c>
       <c r="M28" t="n">
         <v>31.32234697906182</v>
       </c>
       <c r="N28" t="n">
-        <v>30.57757157678757</v>
+        <v>30.57757157678756</v>
       </c>
       <c r="O28" t="n">
-        <v>28.2433364745377</v>
+        <v>28.24333647453769</v>
       </c>
       <c r="P28" t="n">
         <v>24.16705354111456</v>
@@ -33126,16 +33126,16 @@
         <v>16.73201519597161</v>
       </c>
       <c r="R28" t="n">
-        <v>8.984534486947732</v>
+        <v>8.98453448694773</v>
       </c>
       <c r="S28" t="n">
         <v>3.482279136975091</v>
       </c>
       <c r="T28" t="n">
-        <v>0.8537669245583167</v>
+        <v>0.8537669245583165</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01089915222840406</v>
+        <v>0.01089915222840405</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4454594880620746</v>
+        <v>0.4454594880620745</v>
       </c>
       <c r="H29" t="n">
-        <v>4.562061982115723</v>
+        <v>4.562061982115722</v>
       </c>
       <c r="I29" t="n">
-        <v>17.17357691351315</v>
+        <v>17.17357691351314</v>
       </c>
       <c r="J29" t="n">
-        <v>37.80781722490854</v>
+        <v>37.80781722490853</v>
       </c>
       <c r="K29" t="n">
-        <v>56.66411735457617</v>
+        <v>56.66411735457616</v>
       </c>
       <c r="L29" t="n">
-        <v>70.2968481623559</v>
+        <v>70.29684816235589</v>
       </c>
       <c r="M29" t="n">
-        <v>78.21878833317982</v>
+        <v>78.2187883331798</v>
       </c>
       <c r="N29" t="n">
-        <v>79.48445010363619</v>
+        <v>79.48445010363618</v>
       </c>
       <c r="O29" t="n">
-        <v>75.05491231921893</v>
+        <v>75.05491231921891</v>
       </c>
       <c r="P29" t="n">
-        <v>64.05763120768646</v>
+        <v>64.05763120768644</v>
       </c>
       <c r="Q29" t="n">
-        <v>48.10461329146339</v>
+        <v>48.10461329146338</v>
       </c>
       <c r="R29" t="n">
-        <v>27.98209456697932</v>
+        <v>27.98209456697931</v>
       </c>
       <c r="S29" t="n">
-        <v>10.15090808421454</v>
+        <v>10.15090808421453</v>
       </c>
       <c r="T29" t="n">
-        <v>1.949998908991733</v>
+        <v>1.949998908991732</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03563675904496596</v>
+        <v>0.03563675904496595</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,40 +33257,40 @@
         <v>2.301880386200768</v>
       </c>
       <c r="I30" t="n">
-        <v>8.206067680143519</v>
+        <v>8.206067680143518</v>
       </c>
       <c r="J30" t="n">
-        <v>22.51807692967791</v>
+        <v>22.5180769296779</v>
       </c>
       <c r="K30" t="n">
-        <v>38.48698009934318</v>
+        <v>38.48698009934317</v>
       </c>
       <c r="L30" t="n">
-        <v>51.75049433191145</v>
+        <v>51.75049433191144</v>
       </c>
       <c r="M30" t="n">
-        <v>60.39038597221541</v>
+        <v>60.3903859722154</v>
       </c>
       <c r="N30" t="n">
-        <v>61.98873979169816</v>
+        <v>61.98873979169814</v>
       </c>
       <c r="O30" t="n">
-        <v>56.70758642608222</v>
+        <v>56.70758642608221</v>
       </c>
       <c r="P30" t="n">
-        <v>45.51283753606224</v>
+        <v>45.51283753606222</v>
       </c>
       <c r="Q30" t="n">
-        <v>30.42412659399962</v>
+        <v>30.42412659399961</v>
       </c>
       <c r="R30" t="n">
-        <v>14.79810115670213</v>
+        <v>14.79810115670212</v>
       </c>
       <c r="S30" t="n">
-        <v>4.427095111516914</v>
+        <v>4.427095111516913</v>
       </c>
       <c r="T30" t="n">
-        <v>0.9606848659938715</v>
+        <v>0.9606848659938713</v>
       </c>
       <c r="U30" t="n">
         <v>0.01568038410218507</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1998177908540742</v>
+        <v>0.1998177908540741</v>
       </c>
       <c r="H31" t="n">
-        <v>1.776561813229861</v>
+        <v>1.77656181322986</v>
       </c>
       <c r="I31" t="n">
-        <v>6.009065928593432</v>
+        <v>6.009065928593431</v>
       </c>
       <c r="J31" t="n">
         <v>14.12711781338304</v>
@@ -33345,16 +33345,16 @@
         <v>23.21519424650061</v>
       </c>
       <c r="L31" t="n">
-        <v>29.70745592388663</v>
+        <v>29.70745592388662</v>
       </c>
       <c r="M31" t="n">
         <v>31.32234697906182</v>
       </c>
       <c r="N31" t="n">
-        <v>30.57757157678757</v>
+        <v>30.57757157678756</v>
       </c>
       <c r="O31" t="n">
-        <v>28.2433364745377</v>
+        <v>28.24333647453769</v>
       </c>
       <c r="P31" t="n">
         <v>24.16705354111456</v>
@@ -33363,16 +33363,16 @@
         <v>16.73201519597161</v>
       </c>
       <c r="R31" t="n">
-        <v>8.984534486947732</v>
+        <v>8.98453448694773</v>
       </c>
       <c r="S31" t="n">
         <v>3.482279136975091</v>
       </c>
       <c r="T31" t="n">
-        <v>0.8537669245583167</v>
+        <v>0.8537669245583165</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01089915222840406</v>
+        <v>0.01089915222840405</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4454594880620746</v>
+        <v>0.4454594880620745</v>
       </c>
       <c r="H32" t="n">
-        <v>4.562061982115723</v>
+        <v>4.562061982115722</v>
       </c>
       <c r="I32" t="n">
-        <v>17.17357691351315</v>
+        <v>17.17357691351314</v>
       </c>
       <c r="J32" t="n">
-        <v>37.80781722490854</v>
+        <v>37.80781722490853</v>
       </c>
       <c r="K32" t="n">
-        <v>56.66411735457617</v>
+        <v>56.66411735457616</v>
       </c>
       <c r="L32" t="n">
-        <v>70.2968481623559</v>
+        <v>70.29684816235589</v>
       </c>
       <c r="M32" t="n">
-        <v>78.21878833317982</v>
+        <v>78.2187883331798</v>
       </c>
       <c r="N32" t="n">
-        <v>79.48445010363619</v>
+        <v>79.48445010363618</v>
       </c>
       <c r="O32" t="n">
-        <v>75.05491231921893</v>
+        <v>75.05491231921891</v>
       </c>
       <c r="P32" t="n">
-        <v>64.05763120768646</v>
+        <v>64.05763120768644</v>
       </c>
       <c r="Q32" t="n">
-        <v>48.10461329146339</v>
+        <v>48.10461329146338</v>
       </c>
       <c r="R32" t="n">
-        <v>27.98209456697932</v>
+        <v>27.98209456697931</v>
       </c>
       <c r="S32" t="n">
-        <v>10.15090808421454</v>
+        <v>10.15090808421453</v>
       </c>
       <c r="T32" t="n">
-        <v>1.949998908991733</v>
+        <v>1.949998908991732</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03563675904496596</v>
+        <v>0.03563675904496595</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33494,40 +33494,40 @@
         <v>2.301880386200768</v>
       </c>
       <c r="I33" t="n">
-        <v>8.206067680143519</v>
+        <v>8.206067680143518</v>
       </c>
       <c r="J33" t="n">
-        <v>22.51807692967791</v>
+        <v>22.5180769296779</v>
       </c>
       <c r="K33" t="n">
-        <v>38.48698009934318</v>
+        <v>38.48698009934317</v>
       </c>
       <c r="L33" t="n">
-        <v>51.75049433191145</v>
+        <v>51.75049433191144</v>
       </c>
       <c r="M33" t="n">
-        <v>60.39038597221541</v>
+        <v>60.3903859722154</v>
       </c>
       <c r="N33" t="n">
-        <v>61.98873979169816</v>
+        <v>61.98873979169814</v>
       </c>
       <c r="O33" t="n">
-        <v>56.70758642608222</v>
+        <v>56.70758642608221</v>
       </c>
       <c r="P33" t="n">
-        <v>45.51283753606224</v>
+        <v>45.51283753606222</v>
       </c>
       <c r="Q33" t="n">
-        <v>30.42412659399962</v>
+        <v>30.42412659399961</v>
       </c>
       <c r="R33" t="n">
-        <v>14.79810115670213</v>
+        <v>14.79810115670212</v>
       </c>
       <c r="S33" t="n">
-        <v>4.427095111516914</v>
+        <v>4.427095111516913</v>
       </c>
       <c r="T33" t="n">
-        <v>0.9606848659938715</v>
+        <v>0.9606848659938713</v>
       </c>
       <c r="U33" t="n">
         <v>0.01568038410218507</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1998177908540742</v>
+        <v>0.1998177908540741</v>
       </c>
       <c r="H34" t="n">
-        <v>1.776561813229861</v>
+        <v>1.77656181322986</v>
       </c>
       <c r="I34" t="n">
-        <v>6.009065928593432</v>
+        <v>6.009065928593431</v>
       </c>
       <c r="J34" t="n">
         <v>14.12711781338304</v>
@@ -33582,16 +33582,16 @@
         <v>23.21519424650061</v>
       </c>
       <c r="L34" t="n">
-        <v>29.70745592388663</v>
+        <v>29.70745592388662</v>
       </c>
       <c r="M34" t="n">
         <v>31.32234697906182</v>
       </c>
       <c r="N34" t="n">
-        <v>30.57757157678757</v>
+        <v>30.57757157678756</v>
       </c>
       <c r="O34" t="n">
-        <v>28.2433364745377</v>
+        <v>28.24333647453769</v>
       </c>
       <c r="P34" t="n">
         <v>24.16705354111456</v>
@@ -33600,16 +33600,16 @@
         <v>16.73201519597161</v>
       </c>
       <c r="R34" t="n">
-        <v>8.984534486947732</v>
+        <v>8.98453448694773</v>
       </c>
       <c r="S34" t="n">
         <v>3.482279136975091</v>
       </c>
       <c r="T34" t="n">
-        <v>0.8537669245583167</v>
+        <v>0.8537669245583165</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01089915222840406</v>
+        <v>0.01089915222840405</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4454594880620746</v>
+        <v>0.4454594880620745</v>
       </c>
       <c r="H35" t="n">
-        <v>4.562061982115723</v>
+        <v>4.562061982115722</v>
       </c>
       <c r="I35" t="n">
-        <v>17.17357691351315</v>
+        <v>17.17357691351314</v>
       </c>
       <c r="J35" t="n">
-        <v>37.80781722490854</v>
+        <v>37.80781722490853</v>
       </c>
       <c r="K35" t="n">
-        <v>56.66411735457617</v>
+        <v>56.66411735457616</v>
       </c>
       <c r="L35" t="n">
-        <v>70.2968481623559</v>
+        <v>70.29684816235589</v>
       </c>
       <c r="M35" t="n">
-        <v>78.21878833317982</v>
+        <v>78.2187883331798</v>
       </c>
       <c r="N35" t="n">
-        <v>79.48445010363619</v>
+        <v>79.48445010363618</v>
       </c>
       <c r="O35" t="n">
-        <v>75.05491231921893</v>
+        <v>75.05491231921891</v>
       </c>
       <c r="P35" t="n">
-        <v>64.05763120768646</v>
+        <v>64.05763120768644</v>
       </c>
       <c r="Q35" t="n">
-        <v>48.10461329146339</v>
+        <v>48.10461329146338</v>
       </c>
       <c r="R35" t="n">
-        <v>27.98209456697932</v>
+        <v>27.98209456697931</v>
       </c>
       <c r="S35" t="n">
-        <v>10.15090808421454</v>
+        <v>10.15090808421453</v>
       </c>
       <c r="T35" t="n">
-        <v>1.949998908991733</v>
+        <v>1.949998908991732</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03563675904496596</v>
+        <v>0.03563675904496595</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33731,40 +33731,40 @@
         <v>2.301880386200768</v>
       </c>
       <c r="I36" t="n">
-        <v>8.206067680143519</v>
+        <v>8.206067680143518</v>
       </c>
       <c r="J36" t="n">
-        <v>22.51807692967791</v>
+        <v>22.5180769296779</v>
       </c>
       <c r="K36" t="n">
-        <v>38.48698009934318</v>
+        <v>38.48698009934317</v>
       </c>
       <c r="L36" t="n">
-        <v>51.75049433191145</v>
+        <v>51.75049433191144</v>
       </c>
       <c r="M36" t="n">
-        <v>60.39038597221541</v>
+        <v>60.3903859722154</v>
       </c>
       <c r="N36" t="n">
-        <v>61.98873979169816</v>
+        <v>61.98873979169814</v>
       </c>
       <c r="O36" t="n">
-        <v>56.70758642608222</v>
+        <v>56.70758642608221</v>
       </c>
       <c r="P36" t="n">
-        <v>45.51283753606224</v>
+        <v>45.51283753606222</v>
       </c>
       <c r="Q36" t="n">
-        <v>30.42412659399962</v>
+        <v>30.42412659399961</v>
       </c>
       <c r="R36" t="n">
-        <v>14.79810115670213</v>
+        <v>14.79810115670212</v>
       </c>
       <c r="S36" t="n">
-        <v>4.427095111516914</v>
+        <v>4.427095111516913</v>
       </c>
       <c r="T36" t="n">
-        <v>0.9606848659938715</v>
+        <v>0.9606848659938713</v>
       </c>
       <c r="U36" t="n">
         <v>0.01568038410218507</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1998177908540742</v>
+        <v>0.1998177908540741</v>
       </c>
       <c r="H37" t="n">
-        <v>1.776561813229861</v>
+        <v>1.77656181322986</v>
       </c>
       <c r="I37" t="n">
-        <v>6.009065928593432</v>
+        <v>6.009065928593431</v>
       </c>
       <c r="J37" t="n">
         <v>14.12711781338304</v>
@@ -33819,16 +33819,16 @@
         <v>23.21519424650061</v>
       </c>
       <c r="L37" t="n">
-        <v>29.70745592388663</v>
+        <v>29.70745592388662</v>
       </c>
       <c r="M37" t="n">
         <v>31.32234697906182</v>
       </c>
       <c r="N37" t="n">
-        <v>30.57757157678757</v>
+        <v>30.57757157678756</v>
       </c>
       <c r="O37" t="n">
-        <v>28.2433364745377</v>
+        <v>28.24333647453769</v>
       </c>
       <c r="P37" t="n">
         <v>24.16705354111456</v>
@@ -33837,16 +33837,16 @@
         <v>16.73201519597161</v>
       </c>
       <c r="R37" t="n">
-        <v>8.984534486947732</v>
+        <v>8.98453448694773</v>
       </c>
       <c r="S37" t="n">
         <v>3.482279136975091</v>
       </c>
       <c r="T37" t="n">
-        <v>0.8537669245583167</v>
+        <v>0.8537669245583165</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01089915222840406</v>
+        <v>0.01089915222840405</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4454594880620746</v>
+        <v>0.4454594880620745</v>
       </c>
       <c r="H38" t="n">
-        <v>4.562061982115723</v>
+        <v>4.562061982115722</v>
       </c>
       <c r="I38" t="n">
-        <v>17.17357691351315</v>
+        <v>17.17357691351314</v>
       </c>
       <c r="J38" t="n">
-        <v>37.80781722490854</v>
+        <v>37.80781722490853</v>
       </c>
       <c r="K38" t="n">
-        <v>56.66411735457617</v>
+        <v>56.66411735457616</v>
       </c>
       <c r="L38" t="n">
-        <v>70.2968481623559</v>
+        <v>70.29684816235589</v>
       </c>
       <c r="M38" t="n">
-        <v>78.21878833317982</v>
+        <v>78.2187883331798</v>
       </c>
       <c r="N38" t="n">
-        <v>79.48445010363619</v>
+        <v>79.48445010363618</v>
       </c>
       <c r="O38" t="n">
-        <v>75.05491231921893</v>
+        <v>75.05491231921891</v>
       </c>
       <c r="P38" t="n">
-        <v>64.05763120768646</v>
+        <v>64.05763120768644</v>
       </c>
       <c r="Q38" t="n">
-        <v>48.10461329146339</v>
+        <v>48.10461329146338</v>
       </c>
       <c r="R38" t="n">
-        <v>27.98209456697932</v>
+        <v>27.98209456697931</v>
       </c>
       <c r="S38" t="n">
-        <v>10.15090808421454</v>
+        <v>10.15090808421453</v>
       </c>
       <c r="T38" t="n">
-        <v>1.949998908991733</v>
+        <v>1.949998908991732</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03563675904496596</v>
+        <v>0.03563675904496595</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,40 +33968,40 @@
         <v>2.301880386200768</v>
       </c>
       <c r="I39" t="n">
-        <v>8.206067680143519</v>
+        <v>8.206067680143518</v>
       </c>
       <c r="J39" t="n">
-        <v>22.51807692967791</v>
+        <v>22.5180769296779</v>
       </c>
       <c r="K39" t="n">
-        <v>38.48698009934318</v>
+        <v>38.48698009934317</v>
       </c>
       <c r="L39" t="n">
-        <v>51.75049433191145</v>
+        <v>51.75049433191144</v>
       </c>
       <c r="M39" t="n">
-        <v>60.39038597221541</v>
+        <v>60.3903859722154</v>
       </c>
       <c r="N39" t="n">
-        <v>61.98873979169816</v>
+        <v>61.98873979169814</v>
       </c>
       <c r="O39" t="n">
-        <v>56.70758642608222</v>
+        <v>56.70758642608221</v>
       </c>
       <c r="P39" t="n">
-        <v>45.51283753606224</v>
+        <v>45.51283753606222</v>
       </c>
       <c r="Q39" t="n">
-        <v>30.42412659399962</v>
+        <v>30.42412659399961</v>
       </c>
       <c r="R39" t="n">
-        <v>14.79810115670213</v>
+        <v>14.79810115670212</v>
       </c>
       <c r="S39" t="n">
-        <v>4.427095111516914</v>
+        <v>4.427095111516913</v>
       </c>
       <c r="T39" t="n">
-        <v>0.9606848659938715</v>
+        <v>0.9606848659938713</v>
       </c>
       <c r="U39" t="n">
         <v>0.01568038410218507</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1998177908540742</v>
+        <v>0.1998177908540741</v>
       </c>
       <c r="H40" t="n">
-        <v>1.776561813229861</v>
+        <v>1.77656181322986</v>
       </c>
       <c r="I40" t="n">
-        <v>6.009065928593432</v>
+        <v>6.009065928593431</v>
       </c>
       <c r="J40" t="n">
         <v>14.12711781338304</v>
@@ -34056,16 +34056,16 @@
         <v>23.21519424650061</v>
       </c>
       <c r="L40" t="n">
-        <v>29.70745592388663</v>
+        <v>29.70745592388662</v>
       </c>
       <c r="M40" t="n">
         <v>31.32234697906182</v>
       </c>
       <c r="N40" t="n">
-        <v>30.57757157678757</v>
+        <v>30.57757157678756</v>
       </c>
       <c r="O40" t="n">
-        <v>28.2433364745377</v>
+        <v>28.24333647453769</v>
       </c>
       <c r="P40" t="n">
         <v>24.16705354111456</v>
@@ -34074,16 +34074,16 @@
         <v>16.73201519597161</v>
       </c>
       <c r="R40" t="n">
-        <v>8.984534486947732</v>
+        <v>8.98453448694773</v>
       </c>
       <c r="S40" t="n">
         <v>3.482279136975091</v>
       </c>
       <c r="T40" t="n">
-        <v>0.8537669245583167</v>
+        <v>0.8537669245583165</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01089915222840406</v>
+        <v>0.01089915222840405</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4454594880620746</v>
+        <v>0.4454594880620745</v>
       </c>
       <c r="H41" t="n">
-        <v>4.562061982115723</v>
+        <v>4.562061982115722</v>
       </c>
       <c r="I41" t="n">
-        <v>17.17357691351315</v>
+        <v>17.17357691351314</v>
       </c>
       <c r="J41" t="n">
-        <v>37.80781722490854</v>
+        <v>37.80781722490853</v>
       </c>
       <c r="K41" t="n">
-        <v>56.66411735457617</v>
+        <v>56.66411735457616</v>
       </c>
       <c r="L41" t="n">
-        <v>70.2968481623559</v>
+        <v>70.29684816235589</v>
       </c>
       <c r="M41" t="n">
-        <v>78.21878833317982</v>
+        <v>78.2187883331798</v>
       </c>
       <c r="N41" t="n">
-        <v>79.48445010363619</v>
+        <v>79.48445010363618</v>
       </c>
       <c r="O41" t="n">
-        <v>75.05491231921893</v>
+        <v>75.05491231921891</v>
       </c>
       <c r="P41" t="n">
-        <v>64.05763120768646</v>
+        <v>64.05763120768644</v>
       </c>
       <c r="Q41" t="n">
-        <v>48.10461329146339</v>
+        <v>48.10461329146338</v>
       </c>
       <c r="R41" t="n">
-        <v>27.98209456697932</v>
+        <v>27.98209456697931</v>
       </c>
       <c r="S41" t="n">
-        <v>10.15090808421454</v>
+        <v>10.15090808421453</v>
       </c>
       <c r="T41" t="n">
-        <v>1.949998908991733</v>
+        <v>1.949998908991732</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03563675904496596</v>
+        <v>0.03563675904496595</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,40 +34205,40 @@
         <v>2.301880386200768</v>
       </c>
       <c r="I42" t="n">
-        <v>8.206067680143519</v>
+        <v>8.206067680143518</v>
       </c>
       <c r="J42" t="n">
-        <v>22.51807692967791</v>
+        <v>22.5180769296779</v>
       </c>
       <c r="K42" t="n">
-        <v>38.48698009934318</v>
+        <v>38.48698009934317</v>
       </c>
       <c r="L42" t="n">
-        <v>51.75049433191145</v>
+        <v>51.75049433191144</v>
       </c>
       <c r="M42" t="n">
-        <v>60.39038597221541</v>
+        <v>60.3903859722154</v>
       </c>
       <c r="N42" t="n">
-        <v>61.98873979169816</v>
+        <v>61.98873979169814</v>
       </c>
       <c r="O42" t="n">
-        <v>56.70758642608222</v>
+        <v>56.70758642608221</v>
       </c>
       <c r="P42" t="n">
-        <v>45.51283753606224</v>
+        <v>45.51283753606222</v>
       </c>
       <c r="Q42" t="n">
-        <v>30.42412659399962</v>
+        <v>30.42412659399961</v>
       </c>
       <c r="R42" t="n">
-        <v>14.79810115670213</v>
+        <v>14.79810115670212</v>
       </c>
       <c r="S42" t="n">
-        <v>4.427095111516914</v>
+        <v>4.427095111516913</v>
       </c>
       <c r="T42" t="n">
-        <v>0.9606848659938715</v>
+        <v>0.9606848659938713</v>
       </c>
       <c r="U42" t="n">
         <v>0.01568038410218507</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1998177908540742</v>
+        <v>0.1998177908540741</v>
       </c>
       <c r="H43" t="n">
-        <v>1.776561813229861</v>
+        <v>1.77656181322986</v>
       </c>
       <c r="I43" t="n">
-        <v>6.009065928593432</v>
+        <v>6.009065928593431</v>
       </c>
       <c r="J43" t="n">
         <v>14.12711781338304</v>
@@ -34293,16 +34293,16 @@
         <v>23.21519424650061</v>
       </c>
       <c r="L43" t="n">
-        <v>29.70745592388663</v>
+        <v>29.70745592388662</v>
       </c>
       <c r="M43" t="n">
         <v>31.32234697906182</v>
       </c>
       <c r="N43" t="n">
-        <v>30.57757157678757</v>
+        <v>30.57757157678756</v>
       </c>
       <c r="O43" t="n">
-        <v>28.2433364745377</v>
+        <v>28.24333647453769</v>
       </c>
       <c r="P43" t="n">
         <v>24.16705354111456</v>
@@ -34311,16 +34311,16 @@
         <v>16.73201519597161</v>
       </c>
       <c r="R43" t="n">
-        <v>8.984534486947732</v>
+        <v>8.98453448694773</v>
       </c>
       <c r="S43" t="n">
         <v>3.482279136975091</v>
       </c>
       <c r="T43" t="n">
-        <v>0.8537669245583167</v>
+        <v>0.8537669245583165</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01089915222840406</v>
+        <v>0.01089915222840405</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4454594880620746</v>
+        <v>0.4454594880620745</v>
       </c>
       <c r="H44" t="n">
-        <v>4.562061982115723</v>
+        <v>4.562061982115722</v>
       </c>
       <c r="I44" t="n">
-        <v>17.17357691351315</v>
+        <v>17.17357691351314</v>
       </c>
       <c r="J44" t="n">
-        <v>37.80781722490854</v>
+        <v>37.80781722490853</v>
       </c>
       <c r="K44" t="n">
-        <v>56.66411735457617</v>
+        <v>56.66411735457616</v>
       </c>
       <c r="L44" t="n">
-        <v>70.2968481623559</v>
+        <v>70.29684816235589</v>
       </c>
       <c r="M44" t="n">
-        <v>78.21878833317982</v>
+        <v>78.2187883331798</v>
       </c>
       <c r="N44" t="n">
-        <v>79.48445010363619</v>
+        <v>79.48445010363618</v>
       </c>
       <c r="O44" t="n">
-        <v>75.05491231921893</v>
+        <v>75.05491231921891</v>
       </c>
       <c r="P44" t="n">
-        <v>64.05763120768646</v>
+        <v>64.05763120768644</v>
       </c>
       <c r="Q44" t="n">
-        <v>48.10461329146339</v>
+        <v>48.10461329146338</v>
       </c>
       <c r="R44" t="n">
-        <v>27.98209456697932</v>
+        <v>27.98209456697931</v>
       </c>
       <c r="S44" t="n">
-        <v>10.15090808421454</v>
+        <v>10.15090808421453</v>
       </c>
       <c r="T44" t="n">
-        <v>1.949998908991733</v>
+        <v>1.949998908991732</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03563675904496596</v>
+        <v>0.03563675904496595</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,40 +34442,40 @@
         <v>2.301880386200768</v>
       </c>
       <c r="I45" t="n">
-        <v>8.206067680143519</v>
+        <v>8.206067680143518</v>
       </c>
       <c r="J45" t="n">
-        <v>22.51807692967791</v>
+        <v>22.5180769296779</v>
       </c>
       <c r="K45" t="n">
-        <v>38.48698009934318</v>
+        <v>38.48698009934317</v>
       </c>
       <c r="L45" t="n">
-        <v>51.75049433191145</v>
+        <v>51.75049433191144</v>
       </c>
       <c r="M45" t="n">
-        <v>60.39038597221541</v>
+        <v>60.3903859722154</v>
       </c>
       <c r="N45" t="n">
-        <v>61.98873979169816</v>
+        <v>61.98873979169814</v>
       </c>
       <c r="O45" t="n">
-        <v>56.70758642608222</v>
+        <v>56.70758642608221</v>
       </c>
       <c r="P45" t="n">
-        <v>45.51283753606224</v>
+        <v>45.51283753606222</v>
       </c>
       <c r="Q45" t="n">
-        <v>30.42412659399962</v>
+        <v>30.42412659399961</v>
       </c>
       <c r="R45" t="n">
-        <v>14.79810115670213</v>
+        <v>14.79810115670212</v>
       </c>
       <c r="S45" t="n">
-        <v>4.427095111516914</v>
+        <v>4.427095111516913</v>
       </c>
       <c r="T45" t="n">
-        <v>0.9606848659938715</v>
+        <v>0.9606848659938713</v>
       </c>
       <c r="U45" t="n">
         <v>0.01568038410218507</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1998177908540742</v>
+        <v>0.1998177908540741</v>
       </c>
       <c r="H46" t="n">
-        <v>1.776561813229861</v>
+        <v>1.77656181322986</v>
       </c>
       <c r="I46" t="n">
-        <v>6.009065928593432</v>
+        <v>6.009065928593431</v>
       </c>
       <c r="J46" t="n">
         <v>14.12711781338304</v>
@@ -34530,16 +34530,16 @@
         <v>23.21519424650061</v>
       </c>
       <c r="L46" t="n">
-        <v>29.70745592388663</v>
+        <v>29.70745592388662</v>
       </c>
       <c r="M46" t="n">
         <v>31.32234697906182</v>
       </c>
       <c r="N46" t="n">
-        <v>30.57757157678757</v>
+        <v>30.57757157678756</v>
       </c>
       <c r="O46" t="n">
-        <v>28.2433364745377</v>
+        <v>28.24333647453769</v>
       </c>
       <c r="P46" t="n">
         <v>24.16705354111456</v>
@@ -34548,16 +34548,16 @@
         <v>16.73201519597161</v>
       </c>
       <c r="R46" t="n">
-        <v>8.984534486947732</v>
+        <v>8.98453448694773</v>
       </c>
       <c r="S46" t="n">
         <v>3.482279136975091</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8537669245583167</v>
+        <v>0.8537669245583165</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01089915222840406</v>
+        <v>0.01089915222840405</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35404,13 +35404,13 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>30.39929300540028</v>
       </c>
       <c r="J11" t="n">
-        <v>68.39702598806987</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>60.52653654573127</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -35419,19 +35419,19 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>68.39702598806987</v>
+        <v>68.39702598806997</v>
       </c>
       <c r="O11" t="n">
-        <v>4.432481523718992</v>
+        <v>52.52953273264204</v>
       </c>
       <c r="P11" t="n">
-        <v>57.05548430630981</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>49.8065896238863</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>36.23621915821165</v>
       </c>
       <c r="S11" t="n">
         <v>22.73598032068645</v>
@@ -35501,7 +35501,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>52.22885684391464</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35510,7 +35510,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>52.22885684391465</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35541,16 +35541,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>38.36633246932735</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>68.39702598806987</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>68.39702598806987</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -35568,16 +35568,16 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>15.80277458380207</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>54.1691070531292</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>68.39702598806997</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>68.39702598806997</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>30.39929300540028</v>
       </c>
       <c r="J14" t="n">
-        <v>68.39702598806987</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>58.87461752662948</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>6.291577300445732</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>28.92997566886338</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="P14" t="n">
-        <v>57.05548430630981</v>
+        <v>57.05548430630979</v>
       </c>
       <c r="Q14" t="n">
-        <v>49.8065896238863</v>
+        <v>49.80658962388628</v>
       </c>
       <c r="R14" t="n">
-        <v>36.23621915821166</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,7 +35732,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>38.24046249238176</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>52.22885684391465</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35765,7 +35765,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>13.98839435153289</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -35778,10 +35778,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>38.36633246932735</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>51.11347102880882</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -35799,10 +35799,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>68.39702598806987</v>
+        <v>47.43994475395639</v>
       </c>
       <c r="J16" t="n">
-        <v>54.1691070531294</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -35811,7 +35811,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>68.39702598806987</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -35826,7 +35826,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>54.04341077717658</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35881,13 +35881,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>68.39702598806993</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>26.68833871397956</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -35905,19 +35905,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>48.68523419201481</v>
+        <v>68.39702598806993</v>
       </c>
       <c r="S17" t="n">
-        <v>68.39702598806993</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>68.39702598806993</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>68.39702598806993</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>21.99689547803524</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -36112,40 +36112,40 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>16.94827559451693</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>68.39702598806993</v>
       </c>
       <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
         <v>68.39702598806993</v>
       </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
       <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>65.63350978653175</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
         <v>68.39702598806993</v>
-      </c>
-      <c r="M20" t="n">
-        <v>68.39702598806993</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>48.6852341920148</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -36349,13 +36349,13 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>16.94827559451693</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>68.3970259880699</v>
       </c>
       <c r="J23" t="n">
-        <v>68.3970259880699</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -36364,10 +36364,10 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>68.3970259880699</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>26.68833871397952</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -36385,10 +36385,10 @@
         <v>68.3970259880699</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>68.3970259880699</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>43.63661430849646</v>
       </c>
       <c r="V23" t="n">
         <v>21.99689547803524</v>
@@ -36595,28 +36595,28 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>97.85446304045632</v>
+        <v>16.22640379455962</v>
       </c>
       <c r="L26" t="n">
         <v>433.3080812606695</v>
       </c>
       <c r="M26" t="n">
-        <v>74.64632922401751</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>433.3080812606695</v>
       </c>
       <c r="O26" t="n">
-        <v>246.7413446963295</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>59.62057863372726</v>
+        <v>394.2912351320692</v>
       </c>
       <c r="Q26" t="n">
         <v>273.1792742376046</v>
       </c>
       <c r="R26" t="n">
-        <v>38.80131348562912</v>
+        <v>107.1463901535308</v>
       </c>
       <c r="S26" t="n">
         <v>25.30107464810391</v>
@@ -36647,13 +36647,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>44.37732844655483</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>20.78405720140103</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -36701,7 +36701,7 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>23.5932712451538</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -36747,7 +36747,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>73.26563741861841</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -36762,10 +36762,10 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>29.01709516534922</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>102.2827325839676</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>32.96438733281774</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>37.14854009034612</v>
       </c>
       <c r="K29" t="n">
-        <v>400.2028599471601</v>
+        <v>63.09163087314872</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>173.8350579450181</v>
       </c>
       <c r="M29" t="n">
-        <v>423.6048307034216</v>
+        <v>433.3080812606695</v>
       </c>
       <c r="N29" t="n">
-        <v>433.3080812606695</v>
+        <v>76.82183138438863</v>
       </c>
       <c r="O29" t="n">
         <v>433.3080812606695</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>59.62057863372725</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>273.1792742376046</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>107.1463901535308</v>
       </c>
       <c r="S29" t="n">
         <v>25.30107464810391</v>
@@ -36887,7 +36887,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>27.82383976760449</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -36899,7 +36899,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>27.82383976760449</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -36966,10 +36966,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>53.67856535622627</v>
       </c>
       <c r="D31" t="n">
-        <v>72.00955177290925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -36978,13 +36978,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>15.09952079399199</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>73.26563741861841</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -37008,10 +37008,10 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>90.02975689469052</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>50.19462668674706</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>32.96438733281771</v>
       </c>
       <c r="J32" t="n">
-        <v>30.75527046378411</v>
+        <v>82.30317859881798</v>
       </c>
       <c r="K32" t="n">
-        <v>400.2028599471601</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>433.3080812606695</v>
       </c>
       <c r="M32" t="n">
-        <v>321.1252857691347</v>
+        <v>433.3080812606695</v>
       </c>
       <c r="N32" t="n">
+        <v>56.09339071971473</v>
+      </c>
+      <c r="O32" t="n">
         <v>433.3080812606695</v>
       </c>
-      <c r="O32" t="n">
-        <v>71.72427447050295</v>
-      </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>59.62057863372722</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>52.37168395130371</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>107.1463901535308</v>
       </c>
       <c r="S32" t="n">
         <v>25.30107464810388</v>
@@ -37136,28 +37136,28 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
         <v>44.37732844655492</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37206,10 +37206,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>72.00955177290922</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>74.0404941142294</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -37218,7 +37218,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>44.22338582310814</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -37227,7 +37227,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>15.09952079399219</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -37245,10 +37245,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>90.02975689469049</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>56.60850510459401</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37269,7 +37269,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>2.26644441966036</v>
       </c>
     </row>
     <row r="35">
@@ -37300,40 +37300,40 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>55.08398553735951</v>
+        <v>55.08398553735954</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>104.4227768033598</v>
       </c>
       <c r="K35" t="n">
         <v>85.21122907769052</v>
       </c>
       <c r="L35" t="n">
-        <v>364.9110552725996</v>
+        <v>83.55931005858874</v>
       </c>
       <c r="M35" t="n">
-        <v>364.9110552725996</v>
+        <v>364.9110552725995</v>
       </c>
       <c r="N35" t="n">
-        <v>98.94142958893042</v>
+        <v>98.94142958893043</v>
       </c>
       <c r="O35" t="n">
-        <v>189.1489435786308</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>81.74017683826904</v>
+        <v>364.9110552725995</v>
       </c>
       <c r="Q35" t="n">
-        <v>74.49128215584552</v>
+        <v>89.05323904289483</v>
       </c>
       <c r="R35" t="n">
-        <v>60.92091169017089</v>
+        <v>129.2659883580727</v>
       </c>
       <c r="S35" t="n">
-        <v>47.42067285264568</v>
+        <v>47.42067285264571</v>
       </c>
       <c r="T35" t="n">
-        <v>22.11959820454176</v>
+        <v>22.11959820454179</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37409,7 +37409,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>6.99380701768152</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -37418,7 +37418,7 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>6.993807017681491</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -37443,13 +37443,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.6328649803576977</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>96.16009231877123</v>
       </c>
       <c r="F37" t="n">
-        <v>96.97569508216588</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -37473,7 +37473,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>1.448467743752275</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -37537,40 +37537,40 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>55.08398553735951</v>
+        <v>55.08398553735954</v>
       </c>
       <c r="J38" t="n">
-        <v>104.4227768033598</v>
+        <v>280.2832565823165</v>
       </c>
       <c r="K38" t="n">
-        <v>85.21122907769052</v>
+        <v>352.6268897441138</v>
       </c>
       <c r="L38" t="n">
-        <v>159.2174489311165</v>
+        <v>6.361081602490302</v>
       </c>
       <c r="M38" t="n">
-        <v>364.9110552725996</v>
+        <v>364.9110552725995</v>
       </c>
       <c r="N38" t="n">
-        <v>98.94142958893042</v>
+        <v>98.94142958893043</v>
       </c>
       <c r="O38" t="n">
-        <v>364.9110552725996</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>81.74017683826904</v>
+        <v>81.74017683826905</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>74.49128215584554</v>
       </c>
       <c r="R38" t="n">
-        <v>60.92091169017089</v>
+        <v>60.92091169017091</v>
       </c>
       <c r="S38" t="n">
-        <v>47.42067285264568</v>
+        <v>47.42067285264571</v>
       </c>
       <c r="T38" t="n">
-        <v>22.11959820454176</v>
+        <v>22.11959820454179</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37613,7 +37613,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>6.99380701768152</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -37649,7 +37649,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>6.993807017681491</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -37701,10 +37701,10 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>73.22251743832132</v>
       </c>
       <c r="L40" t="n">
-        <v>97.60856006252358</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -37743,7 +37743,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>24.38604262420219</v>
       </c>
     </row>
     <row r="41">
@@ -37774,40 +37774,40 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>55.08398553735951</v>
+        <v>55.08398553735954</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>280.2832565823165</v>
       </c>
       <c r="K41" t="n">
-        <v>85.21122907769052</v>
+        <v>265.5004676116106</v>
       </c>
       <c r="L41" t="n">
-        <v>364.9110552725996</v>
+        <v>83.55931005858874</v>
       </c>
       <c r="M41" t="n">
-        <v>96.76592742855928</v>
+        <v>96.76592742855929</v>
       </c>
       <c r="N41" t="n">
-        <v>364.9110552725996</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>93.84387267504475</v>
+        <v>93.84387267504476</v>
       </c>
       <c r="P41" t="n">
-        <v>185.36695539017</v>
+        <v>364.9110552725995</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>74.49128215584554</v>
       </c>
       <c r="R41" t="n">
-        <v>129.2659883580726</v>
+        <v>60.92091169017091</v>
       </c>
       <c r="S41" t="n">
-        <v>47.42067285264568</v>
+        <v>47.42067285264571</v>
       </c>
       <c r="T41" t="n">
-        <v>22.11959820454176</v>
+        <v>22.11959820454179</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37886,10 +37886,10 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>6.993807017681491</v>
       </c>
       <c r="U42" t="n">
-        <v>6.99380701768152</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -37914,13 +37914,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>75.79816356076807</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>21.81039650175543</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -37953,7 +37953,7 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>56.22816087866029</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -37977,10 +37977,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>16.99435655966113</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.38604262420216</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -38011,40 +38011,40 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>55.08398553735951</v>
+        <v>55.08398553735954</v>
       </c>
       <c r="J44" t="n">
-        <v>280.2832565823165</v>
+        <v>104.4227768033598</v>
       </c>
       <c r="K44" t="n">
-        <v>244.6812024635131</v>
+        <v>68.62411457024226</v>
       </c>
       <c r="L44" t="n">
-        <v>83.55931005858872</v>
+        <v>83.55931005858874</v>
       </c>
       <c r="M44" t="n">
-        <v>96.76592742855928</v>
+        <v>175.2525363807962</v>
       </c>
       <c r="N44" t="n">
-        <v>364.9110552725996</v>
+        <v>98.94142958893043</v>
       </c>
       <c r="O44" t="n">
-        <v>93.84387267504475</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>81.74017683826904</v>
+        <v>364.9110552725995</v>
       </c>
       <c r="Q44" t="n">
-        <v>74.49128215584552</v>
+        <v>295.2988724421464</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>129.2659883580727</v>
       </c>
       <c r="S44" t="n">
-        <v>47.42067285264568</v>
+        <v>47.42067285264571</v>
       </c>
       <c r="T44" t="n">
-        <v>22.11959820454176</v>
+        <v>22.11959820454179</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38081,7 +38081,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>6.993807017681491</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>6.99380701768152</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -38181,13 +38181,13 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>97.60856006252358</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>97.60856006252351</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
